--- a/amnh/datasets/MigratoryModel/CombinedMigratoryModel_GuthrieZone_Path - AllModels.xlsx
+++ b/amnh/datasets/MigratoryModel/CombinedMigratoryModel_GuthrieZone_Path - AllModels.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colby Ford\Desktop\BantuMigration\Github\amnh\datasets\MigratoryModel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F2ED6CD-102D-411E-8F0F-1ACC634187BF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C16C28-1970-4728-83AB-3EBD17864561}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{48220AAF-5FA7-46D3-8056-2130CE6EF7AB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{48220AAF-5FA7-46D3-8056-2130CE6EF7AB}"/>
   </bookViews>
   <sheets>
     <sheet name="MigratoryModel_TableauData" sheetId="1" r:id="rId1"/>
     <sheet name="ZoneCenterLocations" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MigratoryModel_TableauData!$A$1:$J$171</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MigratoryModel_TableauData!$A$1:$J$265</definedName>
   </definedNames>
   <calcPr calcId="179017" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="89">
   <si>
     <t>A</t>
   </si>
@@ -281,6 +281,21 @@
   </si>
   <si>
     <t>Combined</t>
+  </si>
+  <si>
+    <t>K-S</t>
+  </si>
+  <si>
+    <t>L-D</t>
+  </si>
+  <si>
+    <t>M-R</t>
+  </si>
+  <si>
+    <t>K-N</t>
+  </si>
+  <si>
+    <t>Whiteley et al., 2018</t>
   </si>
 </sst>
 </file>
@@ -632,10 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB7D369B-DF5B-472F-B73D-7CCA41A92755}">
-  <dimension ref="A1:J231"/>
+  <dimension ref="A1:J265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
-      <selection activeCell="M222" sqref="M222"/>
+    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
+      <selection activeCell="G221" sqref="G221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7624,8 +7639,892 @@
         <v>1</v>
       </c>
     </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>54</v>
+      </c>
+      <c r="B232">
+        <v>1</v>
+      </c>
+      <c r="D232">
+        <v>2.3488888888888888</v>
+      </c>
+      <c r="E232">
+        <v>10.31111111111111</v>
+      </c>
+      <c r="F232" t="s">
+        <v>0</v>
+      </c>
+      <c r="H232" t="s">
+        <v>88</v>
+      </c>
+      <c r="I232" t="s">
+        <v>76</v>
+      </c>
+      <c r="J232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>54</v>
+      </c>
+      <c r="B233">
+        <v>2</v>
+      </c>
+      <c r="D233">
+        <v>-0.40769230769230752</v>
+      </c>
+      <c r="E233">
+        <v>21.388461538461538</v>
+      </c>
+      <c r="F233" t="s">
+        <v>2</v>
+      </c>
+      <c r="H233" t="s">
+        <v>88</v>
+      </c>
+      <c r="I233" t="s">
+        <v>76</v>
+      </c>
+      <c r="J233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>55</v>
+      </c>
+      <c r="B234">
+        <v>1</v>
+      </c>
+      <c r="D234">
+        <v>-0.40769230769230752</v>
+      </c>
+      <c r="E234">
+        <v>21.388461538461538</v>
+      </c>
+      <c r="F234" t="s">
+        <v>2</v>
+      </c>
+      <c r="H234" t="s">
+        <v>88</v>
+      </c>
+      <c r="I234" t="s">
+        <v>76</v>
+      </c>
+      <c r="J234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>55</v>
+      </c>
+      <c r="B235">
+        <v>2</v>
+      </c>
+      <c r="D235">
+        <v>-1.753125</v>
+      </c>
+      <c r="E235">
+        <v>13.153124999999999</v>
+      </c>
+      <c r="F235" t="s">
+        <v>1</v>
+      </c>
+      <c r="H235" t="s">
+        <v>88</v>
+      </c>
+      <c r="I235" t="s">
+        <v>76</v>
+      </c>
+      <c r="J235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>21</v>
+      </c>
+      <c r="B236">
+        <v>1</v>
+      </c>
+      <c r="D236">
+        <v>-0.40769230769230752</v>
+      </c>
+      <c r="E236">
+        <v>21.388461538461538</v>
+      </c>
+      <c r="F236" t="s">
+        <v>2</v>
+      </c>
+      <c r="H236" t="s">
+        <v>88</v>
+      </c>
+      <c r="I236" t="s">
+        <v>76</v>
+      </c>
+      <c r="J236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>21</v>
+      </c>
+      <c r="B237">
+        <v>2</v>
+      </c>
+      <c r="D237">
+        <v>-1.78</v>
+      </c>
+      <c r="E237">
+        <v>27.603999999999996</v>
+      </c>
+      <c r="F237" t="s">
+        <v>3</v>
+      </c>
+      <c r="H237" t="s">
+        <v>88</v>
+      </c>
+      <c r="I237" t="s">
+        <v>76</v>
+      </c>
+      <c r="J237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>19</v>
+      </c>
+      <c r="B238">
+        <v>1</v>
+      </c>
+      <c r="D238">
+        <v>-1.753125</v>
+      </c>
+      <c r="E238">
+        <v>13.153124999999999</v>
+      </c>
+      <c r="F238" t="s">
+        <v>1</v>
+      </c>
+      <c r="H238" t="s">
+        <v>88</v>
+      </c>
+      <c r="I238" t="s">
+        <v>76</v>
+      </c>
+      <c r="J238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>19</v>
+      </c>
+      <c r="B239">
+        <v>2</v>
+      </c>
+      <c r="D239">
+        <v>-5.5714285714285703</v>
+      </c>
+      <c r="E239">
+        <v>15.75</v>
+      </c>
+      <c r="F239" t="s">
+        <v>7</v>
+      </c>
+      <c r="H239" t="s">
+        <v>88</v>
+      </c>
+      <c r="I239" t="s">
+        <v>76</v>
+      </c>
+      <c r="J239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>63</v>
+      </c>
+      <c r="B240">
+        <v>1</v>
+      </c>
+      <c r="D240">
+        <v>-5.5714285714285703</v>
+      </c>
+      <c r="E240">
+        <v>15.75</v>
+      </c>
+      <c r="F240" t="s">
+        <v>7</v>
+      </c>
+      <c r="H240" t="s">
+        <v>88</v>
+      </c>
+      <c r="I240" t="s">
+        <v>76</v>
+      </c>
+      <c r="J240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>63</v>
+      </c>
+      <c r="B241">
+        <v>2</v>
+      </c>
+      <c r="D241">
+        <v>-12.962999999999999</v>
+      </c>
+      <c r="E241">
+        <v>22.224999999999998</v>
+      </c>
+      <c r="F241" t="s">
+        <v>9</v>
+      </c>
+      <c r="H241" t="s">
+        <v>88</v>
+      </c>
+      <c r="I241" t="s">
+        <v>76</v>
+      </c>
+      <c r="J241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>84</v>
+      </c>
+      <c r="B242">
+        <v>1</v>
+      </c>
+      <c r="D242">
+        <v>-12.962999999999999</v>
+      </c>
+      <c r="E242">
+        <v>22.224999999999998</v>
+      </c>
+      <c r="F242" t="s">
+        <v>9</v>
+      </c>
+      <c r="H242" t="s">
+        <v>88</v>
+      </c>
+      <c r="I242" t="s">
+        <v>76</v>
+      </c>
+      <c r="J242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>84</v>
+      </c>
+      <c r="B243">
+        <v>2</v>
+      </c>
+      <c r="D243">
+        <v>-23.125</v>
+      </c>
+      <c r="E243">
+        <v>29.665624999999999</v>
+      </c>
+      <c r="F243" t="s">
+        <v>15</v>
+      </c>
+      <c r="H243" t="s">
+        <v>88</v>
+      </c>
+      <c r="I243" t="s">
+        <v>76</v>
+      </c>
+      <c r="J243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>64</v>
+      </c>
+      <c r="B244">
+        <v>1</v>
+      </c>
+      <c r="D244">
+        <v>-12.962999999999999</v>
+      </c>
+      <c r="E244">
+        <v>22.224999999999998</v>
+      </c>
+      <c r="F244" t="s">
+        <v>9</v>
+      </c>
+      <c r="H244" t="s">
+        <v>88</v>
+      </c>
+      <c r="I244" t="s">
+        <v>76</v>
+      </c>
+      <c r="J244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>64</v>
+      </c>
+      <c r="B245">
+        <v>2</v>
+      </c>
+      <c r="D245">
+        <v>-9.16</v>
+      </c>
+      <c r="E245">
+        <v>26.439999999999998</v>
+      </c>
+      <c r="F245" t="s">
+        <v>10</v>
+      </c>
+      <c r="H245" t="s">
+        <v>88</v>
+      </c>
+      <c r="I245" t="s">
+        <v>76</v>
+      </c>
+      <c r="J245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>85</v>
+      </c>
+      <c r="B246">
+        <v>1</v>
+      </c>
+      <c r="D246">
+        <v>-9.16</v>
+      </c>
+      <c r="E246">
+        <v>26.439999999999998</v>
+      </c>
+      <c r="F246" t="s">
+        <v>10</v>
+      </c>
+      <c r="H246" t="s">
+        <v>88</v>
+      </c>
+      <c r="I246" t="s">
+        <v>76</v>
+      </c>
+      <c r="J246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>85</v>
+      </c>
+      <c r="B247">
+        <v>2</v>
+      </c>
+      <c r="D247">
+        <v>-1.78</v>
+      </c>
+      <c r="E247">
+        <v>27.603999999999996</v>
+      </c>
+      <c r="F247" t="s">
+        <v>3</v>
+      </c>
+      <c r="H247" t="s">
+        <v>88</v>
+      </c>
+      <c r="I247" t="s">
+        <v>76</v>
+      </c>
+      <c r="J247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>29</v>
+      </c>
+      <c r="B248">
+        <v>1</v>
+      </c>
+      <c r="D248">
+        <v>-9.16</v>
+      </c>
+      <c r="E248">
+        <v>26.439999999999998</v>
+      </c>
+      <c r="F248" t="s">
+        <v>10</v>
+      </c>
+      <c r="H248" t="s">
+        <v>88</v>
+      </c>
+      <c r="I248" t="s">
+        <v>76</v>
+      </c>
+      <c r="J248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>29</v>
+      </c>
+      <c r="B249">
+        <v>2</v>
+      </c>
+      <c r="D249">
+        <v>-13.122222222222224</v>
+      </c>
+      <c r="E249">
+        <v>29.1944444444444</v>
+      </c>
+      <c r="F249" t="s">
+        <v>11</v>
+      </c>
+      <c r="H249" t="s">
+        <v>88</v>
+      </c>
+      <c r="I249" t="s">
+        <v>76</v>
+      </c>
+      <c r="J249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>51</v>
+      </c>
+      <c r="B250">
+        <v>1</v>
+      </c>
+      <c r="D250">
+        <v>-13.122222222222224</v>
+      </c>
+      <c r="E250">
+        <v>29.1944444444444</v>
+      </c>
+      <c r="F250" t="s">
+        <v>11</v>
+      </c>
+      <c r="H250" t="s">
+        <v>88</v>
+      </c>
+      <c r="I250" t="s">
+        <v>76</v>
+      </c>
+      <c r="J250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>51</v>
+      </c>
+      <c r="B251">
+        <v>2</v>
+      </c>
+      <c r="D251">
+        <v>-1.44444444444444</v>
+      </c>
+      <c r="E251">
+        <v>30.911111111111115</v>
+      </c>
+      <c r="F251" t="s">
+        <v>8</v>
+      </c>
+      <c r="H251" t="s">
+        <v>88</v>
+      </c>
+      <c r="I251" t="s">
+        <v>76</v>
+      </c>
+      <c r="J251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>58</v>
+      </c>
+      <c r="B252">
+        <v>1</v>
+      </c>
+      <c r="D252">
+        <v>-3.7333333333333329</v>
+      </c>
+      <c r="E252">
+        <v>33</v>
+      </c>
+      <c r="F252" t="s">
+        <v>5</v>
+      </c>
+      <c r="H252" t="s">
+        <v>88</v>
+      </c>
+      <c r="I252" t="s">
+        <v>76</v>
+      </c>
+      <c r="J252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>58</v>
+      </c>
+      <c r="B253">
+        <v>2</v>
+      </c>
+      <c r="D253">
+        <v>-1.44444444444444</v>
+      </c>
+      <c r="E253">
+        <v>30.911111111111115</v>
+      </c>
+      <c r="F253" t="s">
+        <v>8</v>
+      </c>
+      <c r="H253" t="s">
+        <v>88</v>
+      </c>
+      <c r="I253" t="s">
+        <v>76</v>
+      </c>
+      <c r="J253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>86</v>
+      </c>
+      <c r="B254">
+        <v>1</v>
+      </c>
+      <c r="D254">
+        <v>-13.122222222222224</v>
+      </c>
+      <c r="E254">
+        <v>29.1944444444444</v>
+      </c>
+      <c r="F254" t="s">
+        <v>11</v>
+      </c>
+      <c r="H254" t="s">
+        <v>88</v>
+      </c>
+      <c r="I254" t="s">
+        <v>76</v>
+      </c>
+      <c r="J254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>86</v>
+      </c>
+      <c r="B255">
+        <v>2</v>
+      </c>
+      <c r="D255">
+        <v>-15.824999999999999</v>
+      </c>
+      <c r="E255">
+        <v>15.45</v>
+      </c>
+      <c r="F255" t="s">
+        <v>14</v>
+      </c>
+      <c r="H255" t="s">
+        <v>88</v>
+      </c>
+      <c r="I255" t="s">
+        <v>76</v>
+      </c>
+      <c r="J255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>52</v>
+      </c>
+      <c r="B256">
+        <v>1</v>
+      </c>
+      <c r="D256">
+        <v>-13.122222222222224</v>
+      </c>
+      <c r="E256">
+        <v>29.1944444444444</v>
+      </c>
+      <c r="F256" t="s">
+        <v>11</v>
+      </c>
+      <c r="H256" t="s">
+        <v>88</v>
+      </c>
+      <c r="I256" t="s">
+        <v>76</v>
+      </c>
+      <c r="J256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>52</v>
+      </c>
+      <c r="B257">
+        <v>2</v>
+      </c>
+      <c r="D257">
+        <v>-3.7333333333333329</v>
+      </c>
+      <c r="E257">
+        <v>33</v>
+      </c>
+      <c r="F257" t="s">
+        <v>5</v>
+      </c>
+      <c r="H257" t="s">
+        <v>88</v>
+      </c>
+      <c r="I257" t="s">
+        <v>76</v>
+      </c>
+      <c r="J257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>58</v>
+      </c>
+      <c r="B258">
+        <v>1</v>
+      </c>
+      <c r="D258">
+        <v>-3.7333333333333329</v>
+      </c>
+      <c r="E258">
+        <v>33</v>
+      </c>
+      <c r="F258" t="s">
+        <v>5</v>
+      </c>
+      <c r="H258" t="s">
+        <v>88</v>
+      </c>
+      <c r="I258" t="s">
+        <v>76</v>
+      </c>
+      <c r="J258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>58</v>
+      </c>
+      <c r="B259">
+        <v>2</v>
+      </c>
+      <c r="D259">
+        <v>-1.44444444444444</v>
+      </c>
+      <c r="E259">
+        <v>30.911111111111115</v>
+      </c>
+      <c r="F259" t="s">
+        <v>8</v>
+      </c>
+      <c r="H259" t="s">
+        <v>88</v>
+      </c>
+      <c r="I259" t="s">
+        <v>76</v>
+      </c>
+      <c r="J259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>60</v>
+      </c>
+      <c r="B260">
+        <v>1</v>
+      </c>
+      <c r="D260">
+        <v>-3.7333333333333329</v>
+      </c>
+      <c r="E260">
+        <v>33</v>
+      </c>
+      <c r="F260" t="s">
+        <v>5</v>
+      </c>
+      <c r="H260" t="s">
+        <v>88</v>
+      </c>
+      <c r="I260" t="s">
+        <v>76</v>
+      </c>
+      <c r="J260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>60</v>
+      </c>
+      <c r="B261">
+        <v>2</v>
+      </c>
+      <c r="D261">
+        <v>-2.35</v>
+      </c>
+      <c r="E261">
+        <v>38.449999999999996</v>
+      </c>
+      <c r="F261" t="s">
+        <v>4</v>
+      </c>
+      <c r="H261" t="s">
+        <v>88</v>
+      </c>
+      <c r="I261" t="s">
+        <v>76</v>
+      </c>
+      <c r="J261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>70</v>
+      </c>
+      <c r="B262">
+        <v>1</v>
+      </c>
+      <c r="D262">
+        <v>-2.35</v>
+      </c>
+      <c r="E262">
+        <v>38.449999999999996</v>
+      </c>
+      <c r="F262" t="s">
+        <v>4</v>
+      </c>
+      <c r="H262" t="s">
+        <v>88</v>
+      </c>
+      <c r="I262" t="s">
+        <v>76</v>
+      </c>
+      <c r="J262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>70</v>
+      </c>
+      <c r="B263">
+        <v>2</v>
+      </c>
+      <c r="D263">
+        <v>-5.85</v>
+      </c>
+      <c r="E263">
+        <v>37.712499999999999</v>
+      </c>
+      <c r="F263" t="s">
+        <v>6</v>
+      </c>
+      <c r="H263" t="s">
+        <v>88</v>
+      </c>
+      <c r="I263" t="s">
+        <v>76</v>
+      </c>
+      <c r="J263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>87</v>
+      </c>
+      <c r="B264">
+        <v>1</v>
+      </c>
+      <c r="D264">
+        <v>-12.962999999999999</v>
+      </c>
+      <c r="E264">
+        <v>22.224999999999998</v>
+      </c>
+      <c r="F264" t="s">
+        <v>9</v>
+      </c>
+      <c r="H264" t="s">
+        <v>88</v>
+      </c>
+      <c r="I264" t="s">
+        <v>76</v>
+      </c>
+      <c r="J264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>87</v>
+      </c>
+      <c r="B265">
+        <v>2</v>
+      </c>
+      <c r="D265">
+        <v>-13.557142857142859</v>
+      </c>
+      <c r="E265">
+        <v>33.514285714285712</v>
+      </c>
+      <c r="F265" t="s">
+        <v>12</v>
+      </c>
+      <c r="H265" t="s">
+        <v>88</v>
+      </c>
+      <c r="I265" t="s">
+        <v>76</v>
+      </c>
+      <c r="J265">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J231" xr:uid="{303E4824-0DA0-4156-A165-CC92066081A2}"/>
+  <autoFilter ref="A1:J265" xr:uid="{303E4824-0DA0-4156-A165-CC92066081A2}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/amnh/datasets/MigratoryModel/CombinedMigratoryModel_GuthrieZone_Path - AllModels.xlsx
+++ b/amnh/datasets/MigratoryModel/CombinedMigratoryModel_GuthrieZone_Path - AllModels.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colby Ford\Desktop\BantuMigration\Github\amnh\datasets\MigratoryModel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C16C28-1970-4728-83AB-3EBD17864561}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A85EB19-532B-470A-9C0C-DC4FF84E0ACC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{48220AAF-5FA7-46D3-8056-2130CE6EF7AB}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1744" uniqueCount="169">
   <si>
     <t>A</t>
   </si>
@@ -296,16 +296,262 @@
   </si>
   <si>
     <t>Whiteley et al., 2018</t>
+  </si>
+  <si>
+    <t>Currie et al., 2013 (Summarized to Guthrie Zone)</t>
+  </si>
+  <si>
+    <t>1-2</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>3-4</t>
+  </si>
+  <si>
+    <t>4-5</t>
+  </si>
+  <si>
+    <t>5-6</t>
+  </si>
+  <si>
+    <t>6-7</t>
+  </si>
+  <si>
+    <t>7-8</t>
+  </si>
+  <si>
+    <t>8-9</t>
+  </si>
+  <si>
+    <t>Grollemund et al., 2015 (Summarized to Guthrie Zone)</t>
+  </si>
+  <si>
+    <t>9-10</t>
+  </si>
+  <si>
+    <t>10-11</t>
+  </si>
+  <si>
+    <t>11-12</t>
+  </si>
+  <si>
+    <t>12-13</t>
+  </si>
+  <si>
+    <t>13-14</t>
+  </si>
+  <si>
+    <t>6-19</t>
+  </si>
+  <si>
+    <t>9-18</t>
+  </si>
+  <si>
+    <t>11-17</t>
+  </si>
+  <si>
+    <t>13-15</t>
+  </si>
+  <si>
+    <t>15-16</t>
+  </si>
+  <si>
+    <t>Currie et al., 2014</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>2-4</t>
+  </si>
+  <si>
+    <t>5-7</t>
+  </si>
+  <si>
+    <t>8-10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>7-11</t>
+  </si>
+  <si>
+    <t>22-23</t>
+  </si>
+  <si>
+    <t>14-15</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>16-17</t>
+  </si>
+  <si>
+    <t>17-18</t>
+  </si>
+  <si>
+    <t>18-19</t>
+  </si>
+  <si>
+    <t>17-20</t>
+  </si>
+  <si>
+    <t>20-21</t>
+  </si>
+  <si>
+    <t>21-22</t>
+  </si>
+  <si>
+    <t>23-24</t>
+  </si>
+  <si>
+    <t>20-25</t>
+  </si>
+  <si>
+    <t>25-26</t>
+  </si>
+  <si>
+    <t>26-27</t>
+  </si>
+  <si>
+    <t>25-28</t>
+  </si>
+  <si>
+    <t>28-29</t>
+  </si>
+  <si>
+    <t>20-22</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>Whiteley et al., 2018 (Summarized to Guthrie Zone)</t>
+  </si>
+  <si>
+    <t>4-7</t>
+  </si>
+  <si>
+    <t>4-6</t>
+  </si>
+  <si>
+    <t>10-13</t>
+  </si>
+  <si>
+    <t>13-11</t>
+  </si>
+  <si>
+    <t>14-16</t>
+  </si>
+  <si>
+    <t>16-19</t>
+  </si>
+  <si>
+    <t>19-18</t>
+  </si>
+  <si>
+    <t>10-12</t>
+  </si>
+  <si>
+    <t>19-20</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -331,8 +577,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -647,28 +894,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB7D369B-DF5B-472F-B73D-7CCA41A92755}">
-  <dimension ref="A1:J265"/>
+  <dimension ref="A1:J401"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
-      <selection activeCell="G221" sqref="G221"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A342" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A386" sqref="A386"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="49.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B1" t="s">
@@ -683,7 +931,7 @@
       <c r="E1" t="s">
         <v>38</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>39</v>
       </c>
       <c r="G1" t="s">
@@ -700,7 +948,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B2">
@@ -715,7 +963,7 @@
       <c r="E2">
         <v>10.31111111111111</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G2">
@@ -732,7 +980,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B3">
@@ -747,7 +995,7 @@
       <c r="E3">
         <v>13.153124999999999</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G3">
@@ -764,7 +1012,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B4">
@@ -779,7 +1027,7 @@
       <c r="E4">
         <v>13.153124999999999</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G4">
@@ -796,7 +1044,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B5">
@@ -811,7 +1059,7 @@
       <c r="E5">
         <v>21.388461538461538</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G5">
@@ -828,7 +1076,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B6">
@@ -843,7 +1091,7 @@
       <c r="E6">
         <v>21.388461538461538</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G6">
@@ -860,7 +1108,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B7">
@@ -875,7 +1123,7 @@
       <c r="E7">
         <v>27.603999999999996</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G7">
@@ -892,7 +1140,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B8">
@@ -907,7 +1155,7 @@
       <c r="E8">
         <v>27.603999999999996</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G8">
@@ -924,7 +1172,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B9">
@@ -939,7 +1187,7 @@
       <c r="E9">
         <v>27.603999999999996</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G9">
@@ -956,7 +1204,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B10">
@@ -971,7 +1219,7 @@
       <c r="E10">
         <v>38.449999999999996</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G10">
@@ -988,7 +1236,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B11">
@@ -1003,7 +1251,7 @@
       <c r="E11">
         <v>33</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G11">
@@ -1020,7 +1268,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B12">
@@ -1035,7 +1283,7 @@
       <c r="E12">
         <v>33</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G12">
@@ -1052,7 +1300,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B13">
@@ -1067,7 +1315,7 @@
       <c r="E13">
         <v>37.712499999999999</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G13">
@@ -1084,7 +1332,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B14">
@@ -1099,7 +1347,7 @@
       <c r="E14">
         <v>37.712499999999999</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G14">
@@ -1116,7 +1364,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B15">
@@ -1131,7 +1379,7 @@
       <c r="E15">
         <v>15.75</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G15">
@@ -1148,7 +1396,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B16">
@@ -1163,7 +1411,7 @@
       <c r="E16">
         <v>15.75</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G16">
@@ -1180,7 +1428,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B17">
@@ -1195,7 +1443,7 @@
       <c r="E17">
         <v>30.911111111111115</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G17">
@@ -1212,7 +1460,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B18">
@@ -1227,7 +1475,7 @@
       <c r="E18">
         <v>30.911111111111115</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G18">
@@ -1244,7 +1492,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B19">
@@ -1259,7 +1507,7 @@
       <c r="E19">
         <v>22.224999999999998</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G19">
@@ -1276,7 +1524,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B20">
@@ -1291,7 +1539,7 @@
       <c r="E20">
         <v>22.224999999999998</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G20">
@@ -1308,7 +1556,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B21">
@@ -1323,7 +1571,7 @@
       <c r="E21">
         <v>22.224999999999998</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G21">
@@ -1340,7 +1588,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B22">
@@ -1355,7 +1603,7 @@
       <c r="E22">
         <v>22.224999999999998</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G22">
@@ -1372,7 +1620,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B23">
@@ -1387,7 +1635,7 @@
       <c r="E23">
         <v>26.439999999999998</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G23">
@@ -1404,7 +1652,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B24">
@@ -1419,7 +1667,7 @@
       <c r="E24">
         <v>29.1944444444444</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G24">
@@ -1436,7 +1684,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B25">
@@ -1451,7 +1699,7 @@
       <c r="E25">
         <v>29.1944444444444</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G25">
@@ -1468,7 +1716,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B26">
@@ -1483,7 +1731,7 @@
       <c r="E26">
         <v>29.1944444444444</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G26">
@@ -1500,7 +1748,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B27">
@@ -1515,7 +1763,7 @@
       <c r="E27">
         <v>33.514285714285712</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G27">
@@ -1532,7 +1780,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B28">
@@ -1547,7 +1795,7 @@
       <c r="E28">
         <v>33.514285714285712</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G28">
@@ -1564,7 +1812,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B29">
@@ -1579,7 +1827,7 @@
       <c r="E29">
         <v>39.125</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G29">
@@ -1596,7 +1844,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B30">
@@ -1611,7 +1859,7 @@
       <c r="E30">
         <v>15.45</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G30">
@@ -1628,7 +1876,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B31">
@@ -1643,7 +1891,7 @@
       <c r="E31">
         <v>29.665624999999999</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G31">
@@ -1660,7 +1908,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B32">
@@ -1675,7 +1923,7 @@
       <c r="E32">
         <v>10.31111111111111</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G32">
@@ -1692,7 +1940,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B33">
@@ -1707,7 +1955,7 @@
       <c r="E33">
         <v>13.153124999999999</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G33">
@@ -1724,7 +1972,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B34">
@@ -1739,7 +1987,7 @@
       <c r="E34">
         <v>13.153124999999999</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G34">
@@ -1756,7 +2004,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B35">
@@ -1771,7 +2019,7 @@
       <c r="E35">
         <v>21.388461538461538</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G35">
@@ -1788,7 +2036,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B36">
@@ -1803,7 +2051,7 @@
       <c r="E36">
         <v>21.388461538461538</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G36">
@@ -1820,7 +2068,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B37">
@@ -1835,7 +2083,7 @@
       <c r="E37">
         <v>21.388461538461538</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G37">
@@ -1852,7 +2100,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="A38" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B38">
@@ -1867,7 +2115,7 @@
       <c r="E38">
         <v>27.603999999999996</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G38">
@@ -1884,7 +2132,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="A39" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B39">
@@ -1899,7 +2147,7 @@
       <c r="E39">
         <v>27.603999999999996</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G39">
@@ -1916,7 +2164,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="A40" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B40">
@@ -1931,7 +2179,7 @@
       <c r="E40">
         <v>27.603999999999996</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G40">
@@ -1948,7 +2196,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="A41" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B41">
@@ -1963,7 +2211,7 @@
       <c r="E41">
         <v>38.449999999999996</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G41">
@@ -1980,7 +2228,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="A42" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B42">
@@ -1995,7 +2243,7 @@
       <c r="E42">
         <v>38.449999999999996</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G42">
@@ -2012,7 +2260,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="A43" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B43">
@@ -2027,7 +2275,7 @@
       <c r="E43">
         <v>38.449999999999996</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G43">
@@ -2044,7 +2292,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="A44" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B44">
@@ -2059,7 +2307,7 @@
       <c r="E44">
         <v>33</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G44">
@@ -2076,7 +2324,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="A45" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B45">
@@ -2091,7 +2339,7 @@
       <c r="E45">
         <v>37.712499999999999</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G45">
@@ -2108,7 +2356,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="A46" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B46">
@@ -2123,7 +2371,7 @@
       <c r="E46">
         <v>15.75</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G46">
@@ -2140,7 +2388,7 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="A47" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B47">
@@ -2155,7 +2403,7 @@
       <c r="E47">
         <v>30.911111111111115</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G47">
@@ -2172,7 +2420,7 @@
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="A48" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B48">
@@ -2187,7 +2435,7 @@
       <c r="E48">
         <v>30.911111111111115</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G48">
@@ -2204,7 +2452,7 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="A49" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B49">
@@ -2219,7 +2467,7 @@
       <c r="E49">
         <v>22.224999999999998</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G49">
@@ -2236,7 +2484,7 @@
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="A50" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B50">
@@ -2251,7 +2499,7 @@
       <c r="E50">
         <v>22.224999999999998</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G50">
@@ -2268,7 +2516,7 @@
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="A51" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B51">
@@ -2283,7 +2531,7 @@
       <c r="E51">
         <v>26.439999999999998</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G51">
@@ -2300,7 +2548,7 @@
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="A52" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B52">
@@ -2315,7 +2563,7 @@
       <c r="E52">
         <v>26.439999999999998</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G52">
@@ -2332,7 +2580,7 @@
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="A53" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B53">
@@ -2347,7 +2595,7 @@
       <c r="E53">
         <v>26.439999999999998</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G53">
@@ -2364,7 +2612,7 @@
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="A54" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B54">
@@ -2379,7 +2627,7 @@
       <c r="E54">
         <v>29.1944444444444</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G54">
@@ -2396,7 +2644,7 @@
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="A55" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B55">
@@ -2411,7 +2659,7 @@
       <c r="E55">
         <v>29.1944444444444</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G55">
@@ -2428,7 +2676,7 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="A56" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B56">
@@ -2443,7 +2691,7 @@
       <c r="E56">
         <v>29.1944444444444</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G56">
@@ -2460,7 +2708,7 @@
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="A57" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B57">
@@ -2475,7 +2723,7 @@
       <c r="E57">
         <v>33.514285714285712</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F57" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G57">
@@ -2492,7 +2740,7 @@
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="A58" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B58">
@@ -2507,7 +2755,7 @@
       <c r="E58">
         <v>33.514285714285712</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F58" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G58">
@@ -2524,7 +2772,7 @@
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="A59" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B59">
@@ -2539,7 +2787,7 @@
       <c r="E59">
         <v>39.125</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F59" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G59">
@@ -2556,7 +2804,7 @@
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="A60" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B60">
@@ -2571,7 +2819,7 @@
       <c r="E60">
         <v>15.45</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F60" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G60">
@@ -2588,7 +2836,7 @@
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="A61" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B61">
@@ -2603,7 +2851,7 @@
       <c r="E61">
         <v>29.665624999999999</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F61" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G61">
@@ -2620,7 +2868,7 @@
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="A62" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B62">
@@ -2635,7 +2883,7 @@
       <c r="E62">
         <v>10.31111111111111</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F62" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G62">
@@ -2652,7 +2900,7 @@
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="A63" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B63">
@@ -2667,7 +2915,7 @@
       <c r="E63">
         <v>13.153124999999999</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F63" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G63">
@@ -2684,7 +2932,7 @@
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="A64" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B64">
@@ -2699,7 +2947,7 @@
       <c r="E64">
         <v>13.153124999999999</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F64" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G64">
@@ -2716,7 +2964,7 @@
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="A65" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B65">
@@ -2731,7 +2979,7 @@
       <c r="E65">
         <v>21.388461538461538</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F65" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G65">
@@ -2748,7 +2996,7 @@
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="A66" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B66">
@@ -2763,7 +3011,7 @@
       <c r="E66">
         <v>21.388461538461538</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F66" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G66">
@@ -2780,7 +3028,7 @@
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="A67" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B67">
@@ -2795,7 +3043,7 @@
       <c r="E67">
         <v>27.603999999999996</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F67" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G67">
@@ -2812,7 +3060,7 @@
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="A68" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B68">
@@ -2827,7 +3075,7 @@
       <c r="E68">
         <v>27.603999999999996</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F68" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G68">
@@ -2844,7 +3092,7 @@
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="A69" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B69">
@@ -2859,7 +3107,7 @@
       <c r="E69">
         <v>38.449999999999996</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F69" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G69">
@@ -2876,7 +3124,7 @@
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="A70" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B70">
@@ -2891,7 +3139,7 @@
       <c r="E70">
         <v>33</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F70" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G70">
@@ -2908,7 +3156,7 @@
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="A71" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B71">
@@ -2923,7 +3171,7 @@
       <c r="E71">
         <v>33</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F71" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G71">
@@ -2940,7 +3188,7 @@
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="A72" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B72">
@@ -2955,7 +3203,7 @@
       <c r="E72">
         <v>37.712499999999999</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F72" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G72">
@@ -2972,7 +3220,7 @@
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="A73" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B73">
@@ -2987,7 +3235,7 @@
       <c r="E73">
         <v>37.712499999999999</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F73" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G73">
@@ -3004,7 +3252,7 @@
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="A74" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B74">
@@ -3019,7 +3267,7 @@
       <c r="E74">
         <v>15.75</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F74" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G74">
@@ -3036,7 +3284,7 @@
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="A75" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B75">
@@ -3051,7 +3299,7 @@
       <c r="E75">
         <v>15.75</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F75" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G75">
@@ -3068,7 +3316,7 @@
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="A76" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B76">
@@ -3083,7 +3331,7 @@
       <c r="E76">
         <v>30.911111111111115</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F76" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G76">
@@ -3100,7 +3348,7 @@
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="A77" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B77">
@@ -3115,7 +3363,7 @@
       <c r="E77">
         <v>30.911111111111115</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F77" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G77">
@@ -3132,7 +3380,7 @@
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="A78" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B78">
@@ -3147,7 +3395,7 @@
       <c r="E78">
         <v>30.911111111111115</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F78" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G78">
@@ -3164,7 +3412,7 @@
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="A79" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B79">
@@ -3179,7 +3427,7 @@
       <c r="E79">
         <v>22.224999999999998</v>
       </c>
-      <c r="F79" t="s">
+      <c r="F79" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G79">
@@ -3196,7 +3444,7 @@
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="A80" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B80">
@@ -3211,7 +3459,7 @@
       <c r="E80">
         <v>22.224999999999998</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F80" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G80">
@@ -3228,7 +3476,7 @@
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="A81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B81">
@@ -3243,7 +3491,7 @@
       <c r="E81">
         <v>26.439999999999998</v>
       </c>
-      <c r="F81" t="s">
+      <c r="F81" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G81">
@@ -3260,7 +3508,7 @@
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="A82" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B82">
@@ -3275,7 +3523,7 @@
       <c r="E82">
         <v>26.439999999999998</v>
       </c>
-      <c r="F82" t="s">
+      <c r="F82" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G82">
@@ -3292,7 +3540,7 @@
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="A83" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B83">
@@ -3307,7 +3555,7 @@
       <c r="E83">
         <v>29.1944444444444</v>
       </c>
-      <c r="F83" t="s">
+      <c r="F83" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G83">
@@ -3324,7 +3572,7 @@
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="A84" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B84">
@@ -3339,7 +3587,7 @@
       <c r="E84">
         <v>29.1944444444444</v>
       </c>
-      <c r="F84" t="s">
+      <c r="F84" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G84">
@@ -3356,7 +3604,7 @@
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+      <c r="A85" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B85">
@@ -3371,7 +3619,7 @@
       <c r="E85">
         <v>29.1944444444444</v>
       </c>
-      <c r="F85" t="s">
+      <c r="F85" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G85">
@@ -3388,7 +3636,7 @@
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="A86" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B86">
@@ -3403,7 +3651,7 @@
       <c r="E86">
         <v>29.1944444444444</v>
       </c>
-      <c r="F86" t="s">
+      <c r="F86" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G86">
@@ -3420,7 +3668,7 @@
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+      <c r="A87" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B87">
@@ -3435,7 +3683,7 @@
       <c r="E87">
         <v>33.514285714285712</v>
       </c>
-      <c r="F87" t="s">
+      <c r="F87" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G87">
@@ -3452,7 +3700,7 @@
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="A88" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B88">
@@ -3467,7 +3715,7 @@
       <c r="E88">
         <v>33.514285714285712</v>
       </c>
-      <c r="F88" t="s">
+      <c r="F88" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G88">
@@ -3484,7 +3732,7 @@
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+      <c r="A89" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B89">
@@ -3499,7 +3747,7 @@
       <c r="E89">
         <v>39.125</v>
       </c>
-      <c r="F89" t="s">
+      <c r="F89" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G89">
@@ -3516,7 +3764,7 @@
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="A90" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B90">
@@ -3531,7 +3779,7 @@
       <c r="E90">
         <v>15.45</v>
       </c>
-      <c r="F90" t="s">
+      <c r="F90" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G90">
@@ -3548,7 +3796,7 @@
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="A91" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B91">
@@ -3563,7 +3811,7 @@
       <c r="E91">
         <v>29.665624999999999</v>
       </c>
-      <c r="F91" t="s">
+      <c r="F91" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G91">
@@ -3580,7 +3828,7 @@
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+      <c r="A92" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B92">
@@ -3592,24 +3840,24 @@
       <c r="E92">
         <v>10.31111111111111</v>
       </c>
-      <c r="F92" t="s">
+      <c r="F92" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G92">
         <v>1</v>
       </c>
       <c r="H92" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I92" t="s">
         <v>76</v>
       </c>
       <c r="J92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+      <c r="A93" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B93">
@@ -3621,24 +3869,24 @@
       <c r="E93">
         <v>13.153124999999999</v>
       </c>
-      <c r="F93" t="s">
+      <c r="F93" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G93">
         <v>3</v>
       </c>
       <c r="H93" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I93" t="s">
         <v>76</v>
       </c>
       <c r="J93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+      <c r="A94" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B94">
@@ -3650,24 +3898,24 @@
       <c r="E94">
         <v>13.153124999999999</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F94" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G94">
         <v>3</v>
       </c>
       <c r="H94" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I94" t="s">
         <v>76</v>
       </c>
       <c r="J94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+      <c r="A95" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B95">
@@ -3679,24 +3927,24 @@
       <c r="E95">
         <v>21.388461538461538</v>
       </c>
-      <c r="F95" t="s">
+      <c r="F95" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G95">
         <v>2</v>
       </c>
       <c r="H95" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I95" t="s">
         <v>76</v>
       </c>
       <c r="J95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+      <c r="A96" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B96">
@@ -3708,24 +3956,24 @@
       <c r="E96">
         <v>21.388461538461538</v>
       </c>
-      <c r="F96" t="s">
+      <c r="F96" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G96">
         <v>2</v>
       </c>
       <c r="H96" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I96" t="s">
         <v>76</v>
       </c>
       <c r="J96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+      <c r="A97" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B97">
@@ -3737,24 +3985,24 @@
       <c r="E97">
         <v>27.603999999999996</v>
       </c>
-      <c r="F97" t="s">
+      <c r="F97" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G97">
         <v>5</v>
       </c>
       <c r="H97" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I97" t="s">
         <v>76</v>
       </c>
       <c r="J97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+      <c r="A98" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B98">
@@ -3766,24 +4014,24 @@
       <c r="E98">
         <v>27.603999999999996</v>
       </c>
-      <c r="F98" t="s">
+      <c r="F98" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G98">
         <v>5</v>
       </c>
       <c r="H98" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I98" t="s">
         <v>76</v>
       </c>
       <c r="J98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+      <c r="A99" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B99">
@@ -3795,24 +4043,24 @@
       <c r="E99">
         <v>38.449999999999996</v>
       </c>
-      <c r="F99" t="s">
+      <c r="F99" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G99">
         <v>7</v>
       </c>
       <c r="H99" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I99" t="s">
         <v>76</v>
       </c>
       <c r="J99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+      <c r="A100" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B100">
@@ -3824,24 +4072,24 @@
       <c r="E100">
         <v>33</v>
       </c>
-      <c r="F100" t="s">
+      <c r="F100" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G100">
         <v>6</v>
       </c>
       <c r="H100" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I100" t="s">
         <v>76</v>
       </c>
       <c r="J100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+      <c r="A101" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B101">
@@ -3853,24 +4101,24 @@
       <c r="E101">
         <v>33</v>
       </c>
-      <c r="F101" t="s">
+      <c r="F101" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G101">
         <v>6</v>
       </c>
       <c r="H101" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I101" t="s">
         <v>76</v>
       </c>
       <c r="J101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+      <c r="A102" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B102">
@@ -3882,24 +4130,24 @@
       <c r="E102">
         <v>33</v>
       </c>
-      <c r="F102" t="s">
+      <c r="F102" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G102">
         <v>6</v>
       </c>
       <c r="H102" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I102" t="s">
         <v>76</v>
       </c>
       <c r="J102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+      <c r="A103" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B103">
@@ -3911,24 +4159,24 @@
       <c r="E103">
         <v>33</v>
       </c>
-      <c r="F103" t="s">
+      <c r="F103" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G103">
         <v>6</v>
       </c>
       <c r="H103" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I103" t="s">
         <v>76</v>
       </c>
       <c r="J103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+      <c r="A104" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B104">
@@ -3940,24 +4188,24 @@
       <c r="E104">
         <v>30.911111111111115</v>
       </c>
-      <c r="F104" t="s">
+      <c r="F104" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G104">
         <v>7</v>
       </c>
       <c r="H104" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I104" t="s">
         <v>76</v>
       </c>
       <c r="J104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+      <c r="A105" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B105">
@@ -3969,24 +4217,24 @@
       <c r="E105">
         <v>22.224999999999998</v>
       </c>
-      <c r="F105" t="s">
+      <c r="F105" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G105">
         <v>4</v>
       </c>
       <c r="H105" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I105" t="s">
         <v>76</v>
       </c>
       <c r="J105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+      <c r="A106" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B106">
@@ -3998,24 +4246,24 @@
       <c r="E106">
         <v>22.224999999999998</v>
       </c>
-      <c r="F106" t="s">
+      <c r="F106" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G106">
         <v>4</v>
       </c>
       <c r="H106" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I106" t="s">
         <v>76</v>
       </c>
       <c r="J106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+      <c r="A107" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B107">
@@ -4027,24 +4275,24 @@
       <c r="E107">
         <v>29.1944444444444</v>
       </c>
-      <c r="F107" t="s">
+      <c r="F107" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G107">
         <v>7</v>
       </c>
       <c r="H107" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I107" t="s">
         <v>76</v>
       </c>
       <c r="J107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+      <c r="A108" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B108">
@@ -4056,24 +4304,24 @@
       <c r="E108">
         <v>29.1944444444444</v>
       </c>
-      <c r="F108" t="s">
+      <c r="F108" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G108">
         <v>7</v>
       </c>
       <c r="H108" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I108" t="s">
         <v>76</v>
       </c>
       <c r="J108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+      <c r="A109" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B109">
@@ -4085,24 +4333,24 @@
       <c r="E109">
         <v>29.1944444444444</v>
       </c>
-      <c r="F109" t="s">
+      <c r="F109" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G109">
         <v>7</v>
       </c>
       <c r="H109" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I109" t="s">
         <v>76</v>
       </c>
       <c r="J109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+      <c r="A110" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B110">
@@ -4114,24 +4362,24 @@
       <c r="E110">
         <v>33.514285714285712</v>
       </c>
-      <c r="F110" t="s">
+      <c r="F110" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G110">
         <v>8</v>
       </c>
       <c r="H110" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I110" t="s">
         <v>76</v>
       </c>
       <c r="J110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+      <c r="A111" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B111">
@@ -4143,24 +4391,24 @@
       <c r="E111">
         <v>33.514285714285712</v>
       </c>
-      <c r="F111" t="s">
+      <c r="F111" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G111">
         <v>8</v>
       </c>
       <c r="H111" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I111" t="s">
         <v>76</v>
       </c>
       <c r="J111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+      <c r="A112" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B112">
@@ -4172,24 +4420,24 @@
       <c r="E112">
         <v>39.125</v>
       </c>
-      <c r="F112" t="s">
+      <c r="F112" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G112">
         <v>9</v>
       </c>
       <c r="H112" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I112" t="s">
         <v>76</v>
       </c>
       <c r="J112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+      <c r="A113" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B113">
@@ -4201,24 +4449,24 @@
       <c r="E113">
         <v>29.665624999999999</v>
       </c>
-      <c r="F113" t="s">
+      <c r="F113" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G113">
         <v>8</v>
       </c>
       <c r="H113" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I113" t="s">
         <v>76</v>
       </c>
       <c r="J113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+      <c r="A114" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B114">
@@ -4230,7 +4478,7 @@
       <c r="E114">
         <v>10.31111111111111</v>
       </c>
-      <c r="F114" t="s">
+      <c r="F114" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G114">
@@ -4247,7 +4495,7 @@
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+      <c r="A115" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B115">
@@ -4259,7 +4507,7 @@
       <c r="E115">
         <v>10.31111111111111</v>
       </c>
-      <c r="F115" t="s">
+      <c r="F115" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G115">
@@ -4276,7 +4524,7 @@
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+      <c r="A116" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B116">
@@ -4288,7 +4536,7 @@
       <c r="E116">
         <v>13.153124999999999</v>
       </c>
-      <c r="F116" t="s">
+      <c r="F116" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G116">
@@ -4305,7 +4553,7 @@
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+      <c r="A117" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B117">
@@ -4317,7 +4565,7 @@
       <c r="E117">
         <v>13.153124999999999</v>
       </c>
-      <c r="F117" t="s">
+      <c r="F117" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G117">
@@ -4334,7 +4582,7 @@
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+      <c r="A118" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B118">
@@ -4346,7 +4594,7 @@
       <c r="E118">
         <v>13.153124999999999</v>
       </c>
-      <c r="F118" t="s">
+      <c r="F118" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G118">
@@ -4363,7 +4611,7 @@
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+      <c r="A119" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B119">
@@ -4375,7 +4623,7 @@
       <c r="E119">
         <v>13.153124999999999</v>
       </c>
-      <c r="F119" t="s">
+      <c r="F119" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G119">
@@ -4392,7 +4640,7 @@
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+      <c r="A120" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B120">
@@ -4404,7 +4652,7 @@
       <c r="E120">
         <v>21.388461538461538</v>
       </c>
-      <c r="F120" t="s">
+      <c r="F120" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G120">
@@ -4421,7 +4669,7 @@
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+      <c r="A121" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B121">
@@ -4433,7 +4681,7 @@
       <c r="E121">
         <v>15.75</v>
       </c>
-      <c r="F121" t="s">
+      <c r="F121" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G121">
@@ -4450,7 +4698,7 @@
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+      <c r="A122" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B122">
@@ -4462,7 +4710,7 @@
       <c r="E122">
         <v>30.911111111111115</v>
       </c>
-      <c r="F122" t="s">
+      <c r="F122" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G122">
@@ -4479,7 +4727,7 @@
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+      <c r="A123" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B123">
@@ -4491,7 +4739,7 @@
       <c r="E123">
         <v>30.911111111111115</v>
       </c>
-      <c r="F123" t="s">
+      <c r="F123" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G123">
@@ -4508,7 +4756,7 @@
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+      <c r="A124" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B124">
@@ -4520,7 +4768,7 @@
       <c r="E124">
         <v>30.911111111111115</v>
       </c>
-      <c r="F124" t="s">
+      <c r="F124" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G124">
@@ -4537,7 +4785,7 @@
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+      <c r="A125" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B125">
@@ -4549,7 +4797,7 @@
       <c r="E125">
         <v>30.911111111111115</v>
       </c>
-      <c r="F125" t="s">
+      <c r="F125" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G125">
@@ -4566,7 +4814,7 @@
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+      <c r="A126" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B126">
@@ -4578,7 +4826,7 @@
       <c r="E126">
         <v>22.224999999999998</v>
       </c>
-      <c r="F126" t="s">
+      <c r="F126" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G126">
@@ -4595,7 +4843,7 @@
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+      <c r="A127" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B127">
@@ -4607,7 +4855,7 @@
       <c r="E127">
         <v>26.439999999999998</v>
       </c>
-      <c r="F127" t="s">
+      <c r="F127" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G127">
@@ -4624,7 +4872,7 @@
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+      <c r="A128" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B128">
@@ -4636,7 +4884,7 @@
       <c r="E128">
         <v>29.1944444444444</v>
       </c>
-      <c r="F128" t="s">
+      <c r="F128" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G128">
@@ -4653,7 +4901,7 @@
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+      <c r="A129" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B129">
@@ -4665,7 +4913,7 @@
       <c r="E129">
         <v>39.125</v>
       </c>
-      <c r="F129" t="s">
+      <c r="F129" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G129">
@@ -4682,7 +4930,7 @@
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+      <c r="A130" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B130">
@@ -4694,7 +4942,7 @@
       <c r="E130">
         <v>10.31111111111111</v>
       </c>
-      <c r="F130" t="s">
+      <c r="F130" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G130">
@@ -4711,7 +4959,7 @@
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+      <c r="A131" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B131">
@@ -4723,7 +4971,7 @@
       <c r="E131">
         <v>13.153124999999999</v>
       </c>
-      <c r="F131" t="s">
+      <c r="F131" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G131">
@@ -4740,7 +4988,7 @@
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+      <c r="A132" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B132">
@@ -4752,7 +5000,7 @@
       <c r="E132">
         <v>13.153124999999999</v>
       </c>
-      <c r="F132" t="s">
+      <c r="F132" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G132">
@@ -4769,7 +5017,7 @@
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+      <c r="A133" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B133">
@@ -4781,7 +5029,7 @@
       <c r="E133">
         <v>13.153124999999999</v>
       </c>
-      <c r="F133" t="s">
+      <c r="F133" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G133">
@@ -4798,7 +5046,7 @@
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+      <c r="A134" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B134">
@@ -4810,7 +5058,7 @@
       <c r="E134">
         <v>13.153124999999999</v>
       </c>
-      <c r="F134" t="s">
+      <c r="F134" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G134">
@@ -4827,7 +5075,7 @@
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+      <c r="A135" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B135">
@@ -4839,7 +5087,7 @@
       <c r="E135">
         <v>13.153124999999999</v>
       </c>
-      <c r="F135" t="s">
+      <c r="F135" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G135">
@@ -4856,7 +5104,7 @@
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+      <c r="A136" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B136">
@@ -4868,7 +5116,7 @@
       <c r="E136">
         <v>21.388461538461538</v>
       </c>
-      <c r="F136" t="s">
+      <c r="F136" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G136">
@@ -4885,7 +5133,7 @@
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+      <c r="A137" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B137">
@@ -4897,7 +5145,7 @@
       <c r="E137">
         <v>33</v>
       </c>
-      <c r="F137" t="s">
+      <c r="F137" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G137">
@@ -4914,7 +5162,7 @@
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+      <c r="A138" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B138">
@@ -4926,7 +5174,7 @@
       <c r="E138">
         <v>15.75</v>
       </c>
-      <c r="F138" t="s">
+      <c r="F138" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G138">
@@ -4943,7 +5191,7 @@
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
+      <c r="A139" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B139">
@@ -4955,7 +5203,7 @@
       <c r="E139">
         <v>30.911111111111115</v>
       </c>
-      <c r="F139" t="s">
+      <c r="F139" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G139">
@@ -4972,7 +5220,7 @@
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
+      <c r="A140" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B140">
@@ -4984,7 +5232,7 @@
       <c r="E140">
         <v>22.224999999999998</v>
       </c>
-      <c r="F140" t="s">
+      <c r="F140" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G140">
@@ -5001,7 +5249,7 @@
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
+      <c r="A141" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B141">
@@ -5013,7 +5261,7 @@
       <c r="E141">
         <v>26.439999999999998</v>
       </c>
-      <c r="F141" t="s">
+      <c r="F141" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G141">
@@ -5030,7 +5278,7 @@
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
+      <c r="A142" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B142">
@@ -5042,7 +5290,7 @@
       <c r="E142">
         <v>29.1944444444444</v>
       </c>
-      <c r="F142" t="s">
+      <c r="F142" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G142">
@@ -5059,7 +5307,7 @@
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
+      <c r="A143" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B143">
@@ -5071,7 +5319,7 @@
       <c r="E143">
         <v>29.1944444444444</v>
       </c>
-      <c r="F143" t="s">
+      <c r="F143" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G143">
@@ -5088,7 +5336,7 @@
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
+      <c r="A144" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B144">
@@ -5100,7 +5348,7 @@
       <c r="E144">
         <v>29.1944444444444</v>
       </c>
-      <c r="F144" t="s">
+      <c r="F144" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G144">
@@ -5117,7 +5365,7 @@
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
+      <c r="A145" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B145">
@@ -5129,7 +5377,7 @@
       <c r="E145">
         <v>29.1944444444444</v>
       </c>
-      <c r="F145" t="s">
+      <c r="F145" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G145">
@@ -5146,7 +5394,7 @@
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
+      <c r="A146" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B146">
@@ -5158,7 +5406,7 @@
       <c r="E146">
         <v>29.1944444444444</v>
       </c>
-      <c r="F146" t="s">
+      <c r="F146" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G146">
@@ -5175,7 +5423,7 @@
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
+      <c r="A147" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B147">
@@ -5187,7 +5435,7 @@
       <c r="E147">
         <v>33.514285714285712</v>
       </c>
-      <c r="F147" t="s">
+      <c r="F147" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G147">
@@ -5204,7 +5452,7 @@
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
+      <c r="A148" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B148">
@@ -5216,24 +5464,24 @@
       <c r="E148">
         <v>10.31111111111111</v>
       </c>
-      <c r="F148" t="s">
+      <c r="F148" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G148">
         <v>1</v>
       </c>
       <c r="H148" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="I148" t="s">
         <v>76</v>
       </c>
       <c r="J148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
+      <c r="A149" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B149">
@@ -5245,24 +5493,24 @@
       <c r="E149">
         <v>13.153124999999999</v>
       </c>
-      <c r="F149" t="s">
+      <c r="F149" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G149">
         <v>2</v>
       </c>
       <c r="H149" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="I149" t="s">
         <v>76</v>
       </c>
       <c r="J149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
+      <c r="A150" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B150">
@@ -5274,24 +5522,24 @@
       <c r="E150">
         <v>13.153124999999999</v>
       </c>
-      <c r="F150" t="s">
+      <c r="F150" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G150">
         <v>2</v>
       </c>
       <c r="H150" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="I150" t="s">
         <v>76</v>
       </c>
       <c r="J150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
+      <c r="A151" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B151">
@@ -5303,24 +5551,24 @@
       <c r="E151">
         <v>21.388461538461538</v>
       </c>
-      <c r="F151" t="s">
+      <c r="F151" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G151">
         <v>3</v>
       </c>
       <c r="H151" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="I151" t="s">
         <v>76</v>
       </c>
       <c r="J151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
+      <c r="A152" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B152">
@@ -5332,24 +5580,24 @@
       <c r="E152">
         <v>21.388461538461538</v>
       </c>
-      <c r="F152" t="s">
+      <c r="F152" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G152">
         <v>3</v>
       </c>
       <c r="H152" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="I152" t="s">
         <v>76</v>
       </c>
       <c r="J152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
+      <c r="A153" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B153">
@@ -5361,24 +5609,24 @@
       <c r="E153">
         <v>38.449999999999996</v>
       </c>
-      <c r="F153" t="s">
+      <c r="F153" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G153">
         <v>9</v>
       </c>
       <c r="H153" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="I153" t="s">
         <v>76</v>
       </c>
       <c r="J153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
+      <c r="A154" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B154">
@@ -5390,24 +5638,24 @@
       <c r="E154">
         <v>33</v>
       </c>
-      <c r="F154" t="s">
+      <c r="F154" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G154">
         <v>7</v>
       </c>
       <c r="H154" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="I154" t="s">
         <v>76</v>
       </c>
       <c r="J154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
+      <c r="A155" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B155">
@@ -5419,24 +5667,24 @@
       <c r="E155">
         <v>33</v>
       </c>
-      <c r="F155" t="s">
+      <c r="F155" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G155">
         <v>7</v>
       </c>
       <c r="H155" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="I155" t="s">
         <v>76</v>
       </c>
       <c r="J155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
+      <c r="A156" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B156">
@@ -5448,24 +5696,24 @@
       <c r="E156">
         <v>33</v>
       </c>
-      <c r="F156" t="s">
+      <c r="F156" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G156">
         <v>7</v>
       </c>
       <c r="H156" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="I156" t="s">
         <v>76</v>
       </c>
       <c r="J156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
+      <c r="A157" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B157">
@@ -5477,24 +5725,24 @@
       <c r="E157">
         <v>37.712499999999999</v>
       </c>
-      <c r="F157" t="s">
+      <c r="F157" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G157">
         <v>8</v>
       </c>
       <c r="H157" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="I157" t="s">
         <v>76</v>
       </c>
       <c r="J157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
+      <c r="A158" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B158">
@@ -5506,24 +5754,24 @@
       <c r="E158">
         <v>37.712499999999999</v>
       </c>
-      <c r="F158" t="s">
+      <c r="F158" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G158">
         <v>8</v>
       </c>
       <c r="H158" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="I158" t="s">
         <v>76</v>
       </c>
       <c r="J158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
+      <c r="A159" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B159">
@@ -5535,24 +5783,24 @@
       <c r="E159">
         <v>37.712499999999999</v>
       </c>
-      <c r="F159" t="s">
+      <c r="F159" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G159">
         <v>8</v>
       </c>
       <c r="H159" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="I159" t="s">
         <v>76</v>
       </c>
       <c r="J159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
+      <c r="A160" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B160">
@@ -5564,24 +5812,24 @@
       <c r="E160">
         <v>37.712499999999999</v>
       </c>
-      <c r="F160" t="s">
+      <c r="F160" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G160">
         <v>8</v>
       </c>
       <c r="H160" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="I160" t="s">
         <v>76</v>
       </c>
       <c r="J160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
+      <c r="A161" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B161">
@@ -5593,24 +5841,24 @@
       <c r="E161">
         <v>15.75</v>
       </c>
-      <c r="F161" t="s">
+      <c r="F161" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G161">
         <v>4</v>
       </c>
       <c r="H161" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="I161" t="s">
         <v>76</v>
       </c>
       <c r="J161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
+      <c r="A162" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B162">
@@ -5622,24 +5870,24 @@
       <c r="E162">
         <v>15.75</v>
       </c>
-      <c r="F162" t="s">
+      <c r="F162" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G162">
         <v>4</v>
       </c>
       <c r="H162" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="I162" t="s">
         <v>76</v>
       </c>
       <c r="J162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
+      <c r="A163" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B163">
@@ -5651,24 +5899,24 @@
       <c r="E163">
         <v>30.911111111111115</v>
       </c>
-      <c r="F163" t="s">
+      <c r="F163" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G163">
         <v>8</v>
       </c>
       <c r="H163" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="I163" t="s">
         <v>76</v>
       </c>
       <c r="J163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
+      <c r="A164" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B164">
@@ -5680,24 +5928,24 @@
       <c r="E164">
         <v>22.224999999999998</v>
       </c>
-      <c r="F164" t="s">
+      <c r="F164" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G164">
         <v>5</v>
       </c>
       <c r="H164" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="I164" t="s">
         <v>76</v>
       </c>
       <c r="J164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
+      <c r="A165" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B165">
@@ -5709,24 +5957,24 @@
       <c r="E165">
         <v>22.224999999999998</v>
       </c>
-      <c r="F165" t="s">
+      <c r="F165" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G165">
         <v>5</v>
       </c>
       <c r="H165" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="I165" t="s">
         <v>76</v>
       </c>
       <c r="J165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
+      <c r="A166" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B166">
@@ -5738,24 +5986,24 @@
       <c r="E166">
         <v>26.439999999999998</v>
       </c>
-      <c r="F166" t="s">
+      <c r="F166" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G166">
         <v>6</v>
       </c>
       <c r="H166" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="I166" t="s">
         <v>76</v>
       </c>
       <c r="J166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
+      <c r="A167" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B167">
@@ -5767,24 +6015,24 @@
       <c r="E167">
         <v>26.439999999999998</v>
       </c>
-      <c r="F167" t="s">
+      <c r="F167" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G167">
         <v>6</v>
       </c>
       <c r="H167" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="I167" t="s">
         <v>76</v>
       </c>
       <c r="J167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
+      <c r="A168" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B168">
@@ -5796,24 +6044,24 @@
       <c r="E168">
         <v>33.514285714285712</v>
       </c>
-      <c r="F168" t="s">
+      <c r="F168" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G168">
         <v>9</v>
       </c>
       <c r="H168" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="I168" t="s">
         <v>76</v>
       </c>
       <c r="J168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
+      <c r="A169" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B169">
@@ -5825,24 +6073,24 @@
       <c r="E169">
         <v>33.514285714285712</v>
       </c>
-      <c r="F169" t="s">
+      <c r="F169" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G169">
         <v>9</v>
       </c>
       <c r="H169" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="I169" t="s">
         <v>76</v>
       </c>
       <c r="J169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
+      <c r="A170" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B170">
@@ -5854,24 +6102,24 @@
       <c r="E170">
         <v>39.125</v>
       </c>
-      <c r="F170" t="s">
+      <c r="F170" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G170">
         <v>9</v>
       </c>
       <c r="H170" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="I170" t="s">
         <v>76</v>
       </c>
       <c r="J170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
+      <c r="A171" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B171">
@@ -5883,24 +6131,24 @@
       <c r="E171">
         <v>29.665624999999999</v>
       </c>
-      <c r="F171" t="s">
+      <c r="F171" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G171">
         <v>10</v>
       </c>
       <c r="H171" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="I171" t="s">
         <v>76</v>
       </c>
       <c r="J171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
+      <c r="A172" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B172">
@@ -5915,7 +6163,7 @@
       <c r="E172">
         <v>10.31111111111111</v>
       </c>
-      <c r="F172" t="s">
+      <c r="F172" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H172" t="s">
@@ -5929,7 +6177,7 @@
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
+      <c r="A173" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B173">
@@ -5944,7 +6192,7 @@
       <c r="E173">
         <v>13.153124999999999</v>
       </c>
-      <c r="F173" t="s">
+      <c r="F173" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H173" t="s">
@@ -5958,7 +6206,7 @@
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
+      <c r="A174" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B174">
@@ -5973,7 +6221,7 @@
       <c r="E174">
         <v>13.153124999999999</v>
       </c>
-      <c r="F174" t="s">
+      <c r="F174" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H174" t="s">
@@ -5987,7 +6235,7 @@
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
+      <c r="A175" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B175">
@@ -6002,7 +6250,7 @@
       <c r="E175">
         <v>21.388461538461538</v>
       </c>
-      <c r="F175" t="s">
+      <c r="F175" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H175" t="s">
@@ -6016,7 +6264,7 @@
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
+      <c r="A176" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B176">
@@ -6031,7 +6279,7 @@
       <c r="E176">
         <v>21.388461538461538</v>
       </c>
-      <c r="F176" t="s">
+      <c r="F176" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H176" t="s">
@@ -6045,7 +6293,7 @@
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
+      <c r="A177" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B177">
@@ -6060,7 +6308,7 @@
       <c r="E177">
         <v>27.603999999999996</v>
       </c>
-      <c r="F177" t="s">
+      <c r="F177" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H177" t="s">
@@ -6074,7 +6322,7 @@
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
+      <c r="A178" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B178">
@@ -6089,7 +6337,7 @@
       <c r="E178">
         <v>27.603999999999996</v>
       </c>
-      <c r="F178" t="s">
+      <c r="F178" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H178" t="s">
@@ -6103,7 +6351,7 @@
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
+      <c r="A179" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B179">
@@ -6118,7 +6366,7 @@
       <c r="E179">
         <v>26.439999999999998</v>
       </c>
-      <c r="F179" t="s">
+      <c r="F179" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H179" t="s">
@@ -6132,7 +6380,7 @@
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
+      <c r="A180" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B180">
@@ -6147,7 +6395,7 @@
       <c r="E180">
         <v>26.439999999999998</v>
       </c>
-      <c r="F180" t="s">
+      <c r="F180" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H180" t="s">
@@ -6161,7 +6409,7 @@
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
+      <c r="A181" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B181">
@@ -6176,7 +6424,7 @@
       <c r="E181">
         <v>22.224999999999998</v>
       </c>
-      <c r="F181" t="s">
+      <c r="F181" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H181" t="s">
@@ -6190,7 +6438,7 @@
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
+      <c r="A182" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B182">
@@ -6205,7 +6453,7 @@
       <c r="E182">
         <v>22.224999999999998</v>
       </c>
-      <c r="F182" t="s">
+      <c r="F182" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H182" t="s">
@@ -6219,7 +6467,7 @@
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
+      <c r="A183" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B183">
@@ -6234,7 +6482,7 @@
       <c r="E183">
         <v>15.45</v>
       </c>
-      <c r="F183" t="s">
+      <c r="F183" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H183" t="s">
@@ -6248,7 +6496,7 @@
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
+      <c r="A184" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B184">
@@ -6263,7 +6511,7 @@
       <c r="E184">
         <v>22.224999999999998</v>
       </c>
-      <c r="F184" t="s">
+      <c r="F184" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H184" t="s">
@@ -6277,7 +6525,7 @@
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
+      <c r="A185" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B185">
@@ -6292,7 +6540,7 @@
       <c r="E185">
         <v>29.1944444444444</v>
       </c>
-      <c r="F185" t="s">
+      <c r="F185" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H185" t="s">
@@ -6306,7 +6554,7 @@
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
+      <c r="A186" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B186">
@@ -6321,7 +6569,7 @@
       <c r="E186">
         <v>29.1944444444444</v>
       </c>
-      <c r="F186" t="s">
+      <c r="F186" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H186" t="s">
@@ -6335,7 +6583,7 @@
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
+      <c r="A187" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B187">
@@ -6350,7 +6598,7 @@
       <c r="E187">
         <v>33.514285714285712</v>
       </c>
-      <c r="F187" t="s">
+      <c r="F187" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H187" t="s">
@@ -6364,7 +6612,7 @@
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
+      <c r="A188" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B188">
@@ -6379,7 +6627,7 @@
       <c r="E188">
         <v>33.514285714285712</v>
       </c>
-      <c r="F188" t="s">
+      <c r="F188" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H188" t="s">
@@ -6393,7 +6641,7 @@
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
+      <c r="A189" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B189">
@@ -6408,7 +6656,7 @@
       <c r="E189">
         <v>39.125</v>
       </c>
-      <c r="F189" t="s">
+      <c r="F189" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H189" t="s">
@@ -6422,7 +6670,7 @@
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
+      <c r="A190" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B190">
@@ -6437,7 +6685,7 @@
       <c r="E190">
         <v>29.1944444444444</v>
       </c>
-      <c r="F190" t="s">
+      <c r="F190" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H190" t="s">
@@ -6451,7 +6699,7 @@
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
+      <c r="A191" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B191">
@@ -6466,7 +6714,7 @@
       <c r="E191">
         <v>29.665624999999999</v>
       </c>
-      <c r="F191" t="s">
+      <c r="F191" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H191" t="s">
@@ -6480,7 +6728,7 @@
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
+      <c r="A192" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B192">
@@ -6495,7 +6743,7 @@
       <c r="E192">
         <v>27.603999999999996</v>
       </c>
-      <c r="F192" t="s">
+      <c r="F192" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H192" t="s">
@@ -6509,7 +6757,7 @@
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
+      <c r="A193" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B193">
@@ -6524,7 +6772,7 @@
       <c r="E193">
         <v>30.911111111111115</v>
       </c>
-      <c r="F193" t="s">
+      <c r="F193" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H193" t="s">
@@ -6538,7 +6786,7 @@
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
+      <c r="A194" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B194">
@@ -6553,7 +6801,7 @@
       <c r="E194">
         <v>30.911111111111115</v>
       </c>
-      <c r="F194" t="s">
+      <c r="F194" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H194" t="s">
@@ -6567,7 +6815,7 @@
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
+      <c r="A195" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B195">
@@ -6582,7 +6830,7 @@
       <c r="E195">
         <v>33</v>
       </c>
-      <c r="F195" t="s">
+      <c r="F195" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H195" t="s">
@@ -6596,7 +6844,7 @@
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
+      <c r="A196" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B196">
@@ -6611,7 +6859,7 @@
       <c r="E196">
         <v>33</v>
       </c>
-      <c r="F196" t="s">
+      <c r="F196" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H196" t="s">
@@ -6625,7 +6873,7 @@
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
+      <c r="A197" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B197">
@@ -6640,7 +6888,7 @@
       <c r="E197">
         <v>37.712499999999999</v>
       </c>
-      <c r="F197" t="s">
+      <c r="F197" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H197" t="s">
@@ -6654,7 +6902,7 @@
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
+      <c r="A198" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B198">
@@ -6669,7 +6917,7 @@
       <c r="E198">
         <v>37.712499999999999</v>
       </c>
-      <c r="F198" t="s">
+      <c r="F198" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H198" t="s">
@@ -6683,7 +6931,7 @@
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
+      <c r="A199" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B199">
@@ -6698,7 +6946,7 @@
       <c r="E199">
         <v>38.449999999999996</v>
       </c>
-      <c r="F199" t="s">
+      <c r="F199" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H199" t="s">
@@ -6712,7 +6960,7 @@
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
+      <c r="A200" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B200">
@@ -6727,7 +6975,7 @@
       <c r="E200">
         <v>13.153124999999999</v>
       </c>
-      <c r="F200" t="s">
+      <c r="F200" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H200" t="s">
@@ -6741,7 +6989,7 @@
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
+      <c r="A201" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B201">
@@ -6756,7 +7004,7 @@
       <c r="E201">
         <v>15.75</v>
       </c>
-      <c r="F201" t="s">
+      <c r="F201" s="1" t="s">
         <v>7</v>
       </c>
       <c r="H201" t="s">
@@ -6770,7 +7018,7 @@
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
+      <c r="A202" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B202">
@@ -6785,7 +7033,7 @@
       <c r="E202">
         <v>10.31111111111111</v>
       </c>
-      <c r="F202" t="s">
+      <c r="F202" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H202" t="s">
@@ -6799,7 +7047,7 @@
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
+      <c r="A203" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B203">
@@ -6814,7 +7062,7 @@
       <c r="E203">
         <v>13.153124999999999</v>
       </c>
-      <c r="F203" t="s">
+      <c r="F203" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H203" t="s">
@@ -6828,7 +7076,7 @@
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
+      <c r="A204" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B204">
@@ -6843,7 +7091,7 @@
       <c r="E204">
         <v>13.153124999999999</v>
       </c>
-      <c r="F204" t="s">
+      <c r="F204" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H204" t="s">
@@ -6857,7 +7105,7 @@
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
+      <c r="A205" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B205">
@@ -6872,7 +7120,7 @@
       <c r="E205">
         <v>21.388461538461538</v>
       </c>
-      <c r="F205" t="s">
+      <c r="F205" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H205" t="s">
@@ -6886,7 +7134,7 @@
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
+      <c r="A206" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B206">
@@ -6901,7 +7149,7 @@
       <c r="E206">
         <v>21.388461538461538</v>
       </c>
-      <c r="F206" t="s">
+      <c r="F206" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H206" t="s">
@@ -6915,7 +7163,7 @@
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
+      <c r="A207" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B207">
@@ -6930,7 +7178,7 @@
       <c r="E207">
         <v>27.603999999999996</v>
       </c>
-      <c r="F207" t="s">
+      <c r="F207" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H207" t="s">
@@ -6944,7 +7192,7 @@
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
+      <c r="A208" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B208">
@@ -6959,7 +7207,7 @@
       <c r="E208">
         <v>27.603999999999996</v>
       </c>
-      <c r="F208" t="s">
+      <c r="F208" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H208" t="s">
@@ -6973,7 +7221,7 @@
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
+      <c r="A209" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B209">
@@ -6988,7 +7236,7 @@
       <c r="E209">
         <v>22.224999999999998</v>
       </c>
-      <c r="F209" t="s">
+      <c r="F209" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H209" t="s">
@@ -7002,7 +7250,7 @@
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
+      <c r="A210" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B210">
@@ -7017,7 +7265,7 @@
       <c r="E210">
         <v>22.224999999999998</v>
       </c>
-      <c r="F210" t="s">
+      <c r="F210" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H210" t="s">
@@ -7031,7 +7279,7 @@
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
+      <c r="A211" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B211">
@@ -7046,7 +7294,7 @@
       <c r="E211">
         <v>15.45</v>
       </c>
-      <c r="F211" t="s">
+      <c r="F211" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H211" t="s">
@@ -7060,7 +7308,7 @@
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
+      <c r="A212" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B212">
@@ -7075,7 +7323,7 @@
       <c r="E212">
         <v>22.224999999999998</v>
       </c>
-      <c r="F212" t="s">
+      <c r="F212" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H212" t="s">
@@ -7089,7 +7337,7 @@
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
+      <c r="A213" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B213">
@@ -7104,7 +7352,7 @@
       <c r="E213">
         <v>26.439999999999998</v>
       </c>
-      <c r="F213" t="s">
+      <c r="F213" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H213" t="s">
@@ -7118,7 +7366,7 @@
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
+      <c r="A214" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B214">
@@ -7133,7 +7381,7 @@
       <c r="E214">
         <v>26.439999999999998</v>
       </c>
-      <c r="F214" t="s">
+      <c r="F214" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H214" t="s">
@@ -7147,7 +7395,7 @@
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
+      <c r="A215" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B215">
@@ -7162,7 +7410,7 @@
       <c r="E215">
         <v>29.1944444444444</v>
       </c>
-      <c r="F215" t="s">
+      <c r="F215" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H215" t="s">
@@ -7176,7 +7424,7 @@
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
+      <c r="A216" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B216">
@@ -7191,7 +7439,7 @@
       <c r="E216">
         <v>29.1944444444444</v>
       </c>
-      <c r="F216" t="s">
+      <c r="F216" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H216" t="s">
@@ -7205,7 +7453,7 @@
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
+      <c r="A217" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B217">
@@ -7220,7 +7468,7 @@
       <c r="E217">
         <v>33.514285714285712</v>
       </c>
-      <c r="F217" t="s">
+      <c r="F217" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H217" t="s">
@@ -7234,7 +7482,7 @@
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
+      <c r="A218" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B218">
@@ -7249,7 +7497,7 @@
       <c r="E218">
         <v>33.514285714285712</v>
       </c>
-      <c r="F218" t="s">
+      <c r="F218" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H218" t="s">
@@ -7263,7 +7511,7 @@
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
+      <c r="A219" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B219">
@@ -7278,7 +7526,7 @@
       <c r="E219">
         <v>39.125</v>
       </c>
-      <c r="F219" t="s">
+      <c r="F219" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H219" t="s">
@@ -7292,7 +7540,7 @@
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
+      <c r="A220" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B220">
@@ -7307,7 +7555,7 @@
       <c r="E220">
         <v>29.1944444444444</v>
       </c>
-      <c r="F220" t="s">
+      <c r="F220" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H220" t="s">
@@ -7321,7 +7569,7 @@
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
+      <c r="A221" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B221">
@@ -7336,7 +7584,7 @@
       <c r="E221">
         <v>29.665624999999999</v>
       </c>
-      <c r="F221" t="s">
+      <c r="F221" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H221" t="s">
@@ -7350,7 +7598,7 @@
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
+      <c r="A222" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B222">
@@ -7365,7 +7613,7 @@
       <c r="E222">
         <v>27.603999999999996</v>
       </c>
-      <c r="F222" t="s">
+      <c r="F222" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H222" t="s">
@@ -7379,7 +7627,7 @@
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
+      <c r="A223" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B223">
@@ -7394,7 +7642,7 @@
       <c r="E223">
         <v>30.911111111111115</v>
       </c>
-      <c r="F223" t="s">
+      <c r="F223" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H223" t="s">
@@ -7408,7 +7656,7 @@
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
+      <c r="A224" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B224">
@@ -7423,7 +7671,7 @@
       <c r="E224">
         <v>30.911111111111115</v>
       </c>
-      <c r="F224" t="s">
+      <c r="F224" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H224" t="s">
@@ -7437,7 +7685,7 @@
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
+      <c r="A225" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B225">
@@ -7452,7 +7700,7 @@
       <c r="E225">
         <v>33</v>
       </c>
-      <c r="F225" t="s">
+      <c r="F225" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H225" t="s">
@@ -7466,7 +7714,7 @@
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
+      <c r="A226" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B226">
@@ -7481,7 +7729,7 @@
       <c r="E226">
         <v>33</v>
       </c>
-      <c r="F226" t="s">
+      <c r="F226" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H226" t="s">
@@ -7495,7 +7743,7 @@
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
+      <c r="A227" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B227">
@@ -7510,7 +7758,7 @@
       <c r="E227">
         <v>37.712499999999999</v>
       </c>
-      <c r="F227" t="s">
+      <c r="F227" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H227" t="s">
@@ -7524,7 +7772,7 @@
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
+      <c r="A228" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B228">
@@ -7539,7 +7787,7 @@
       <c r="E228">
         <v>37.712499999999999</v>
       </c>
-      <c r="F228" t="s">
+      <c r="F228" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H228" t="s">
@@ -7553,7 +7801,7 @@
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
+      <c r="A229" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B229">
@@ -7568,7 +7816,7 @@
       <c r="E229">
         <v>38.449999999999996</v>
       </c>
-      <c r="F229" t="s">
+      <c r="F229" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H229" t="s">
@@ -7582,7 +7830,7 @@
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
+      <c r="A230" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B230">
@@ -7597,7 +7845,7 @@
       <c r="E230">
         <v>21.388461538461538</v>
       </c>
-      <c r="F230" t="s">
+      <c r="F230" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H230" t="s">
@@ -7611,7 +7859,7 @@
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
+      <c r="A231" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B231">
@@ -7626,7 +7874,7 @@
       <c r="E231">
         <v>15.75</v>
       </c>
-      <c r="F231" t="s">
+      <c r="F231" s="1" t="s">
         <v>7</v>
       </c>
       <c r="H231" t="s">
@@ -7640,7 +7888,7 @@
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
+      <c r="A232" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B232">
@@ -7652,21 +7900,21 @@
       <c r="E232">
         <v>10.31111111111111</v>
       </c>
-      <c r="F232" t="s">
+      <c r="F232" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H232" t="s">
-        <v>88</v>
+        <v>159</v>
       </c>
       <c r="I232" t="s">
         <v>76</v>
       </c>
       <c r="J232">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
+      <c r="A233" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B233">
@@ -7678,21 +7926,21 @@
       <c r="E233">
         <v>21.388461538461538</v>
       </c>
-      <c r="F233" t="s">
+      <c r="F233" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H233" t="s">
-        <v>88</v>
+        <v>159</v>
       </c>
       <c r="I233" t="s">
         <v>76</v>
       </c>
       <c r="J233">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
+      <c r="A234" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B234">
@@ -7704,21 +7952,21 @@
       <c r="E234">
         <v>21.388461538461538</v>
       </c>
-      <c r="F234" t="s">
+      <c r="F234" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H234" t="s">
-        <v>88</v>
+        <v>159</v>
       </c>
       <c r="I234" t="s">
         <v>76</v>
       </c>
       <c r="J234">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
+      <c r="A235" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B235">
@@ -7730,21 +7978,21 @@
       <c r="E235">
         <v>13.153124999999999</v>
       </c>
-      <c r="F235" t="s">
+      <c r="F235" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H235" t="s">
-        <v>88</v>
+        <v>159</v>
       </c>
       <c r="I235" t="s">
         <v>76</v>
       </c>
       <c r="J235">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
+      <c r="A236" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B236">
@@ -7756,21 +8004,21 @@
       <c r="E236">
         <v>21.388461538461538</v>
       </c>
-      <c r="F236" t="s">
+      <c r="F236" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H236" t="s">
-        <v>88</v>
+        <v>159</v>
       </c>
       <c r="I236" t="s">
         <v>76</v>
       </c>
       <c r="J236">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
+      <c r="A237" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B237">
@@ -7782,21 +8030,21 @@
       <c r="E237">
         <v>27.603999999999996</v>
       </c>
-      <c r="F237" t="s">
+      <c r="F237" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H237" t="s">
-        <v>88</v>
+        <v>159</v>
       </c>
       <c r="I237" t="s">
         <v>76</v>
       </c>
       <c r="J237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
+      <c r="A238" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B238">
@@ -7808,21 +8056,21 @@
       <c r="E238">
         <v>13.153124999999999</v>
       </c>
-      <c r="F238" t="s">
+      <c r="F238" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H238" t="s">
-        <v>88</v>
+        <v>159</v>
       </c>
       <c r="I238" t="s">
         <v>76</v>
       </c>
       <c r="J238">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
+      <c r="A239" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B239">
@@ -7834,21 +8082,21 @@
       <c r="E239">
         <v>15.75</v>
       </c>
-      <c r="F239" t="s">
+      <c r="F239" s="1" t="s">
         <v>7</v>
       </c>
       <c r="H239" t="s">
-        <v>88</v>
+        <v>159</v>
       </c>
       <c r="I239" t="s">
         <v>76</v>
       </c>
       <c r="J239">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
+      <c r="A240" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B240">
@@ -7860,21 +8108,21 @@
       <c r="E240">
         <v>15.75</v>
       </c>
-      <c r="F240" t="s">
+      <c r="F240" s="1" t="s">
         <v>7</v>
       </c>
       <c r="H240" t="s">
-        <v>88</v>
+        <v>159</v>
       </c>
       <c r="I240" t="s">
         <v>76</v>
       </c>
       <c r="J240">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
+      <c r="A241" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B241">
@@ -7886,21 +8134,21 @@
       <c r="E241">
         <v>22.224999999999998</v>
       </c>
-      <c r="F241" t="s">
+      <c r="F241" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H241" t="s">
-        <v>88</v>
+        <v>159</v>
       </c>
       <c r="I241" t="s">
         <v>76</v>
       </c>
       <c r="J241">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
+      <c r="A242" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B242">
@@ -7912,21 +8160,21 @@
       <c r="E242">
         <v>22.224999999999998</v>
       </c>
-      <c r="F242" t="s">
+      <c r="F242" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H242" t="s">
-        <v>88</v>
+        <v>159</v>
       </c>
       <c r="I242" t="s">
         <v>76</v>
       </c>
       <c r="J242">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
+      <c r="A243" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B243">
@@ -7938,21 +8186,21 @@
       <c r="E243">
         <v>29.665624999999999</v>
       </c>
-      <c r="F243" t="s">
+      <c r="F243" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H243" t="s">
-        <v>88</v>
+        <v>159</v>
       </c>
       <c r="I243" t="s">
         <v>76</v>
       </c>
       <c r="J243">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
+      <c r="A244" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B244">
@@ -7964,21 +8212,21 @@
       <c r="E244">
         <v>22.224999999999998</v>
       </c>
-      <c r="F244" t="s">
+      <c r="F244" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H244" t="s">
-        <v>88</v>
+        <v>159</v>
       </c>
       <c r="I244" t="s">
         <v>76</v>
       </c>
       <c r="J244">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
+      <c r="A245" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B245">
@@ -7990,21 +8238,21 @@
       <c r="E245">
         <v>26.439999999999998</v>
       </c>
-      <c r="F245" t="s">
+      <c r="F245" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H245" t="s">
-        <v>88</v>
+        <v>159</v>
       </c>
       <c r="I245" t="s">
         <v>76</v>
       </c>
       <c r="J245">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
+      <c r="A246" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B246">
@@ -8016,21 +8264,21 @@
       <c r="E246">
         <v>26.439999999999998</v>
       </c>
-      <c r="F246" t="s">
+      <c r="F246" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H246" t="s">
-        <v>88</v>
+        <v>159</v>
       </c>
       <c r="I246" t="s">
         <v>76</v>
       </c>
       <c r="J246">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
+      <c r="A247" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B247">
@@ -8042,21 +8290,21 @@
       <c r="E247">
         <v>27.603999999999996</v>
       </c>
-      <c r="F247" t="s">
+      <c r="F247" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H247" t="s">
-        <v>88</v>
+        <v>159</v>
       </c>
       <c r="I247" t="s">
         <v>76</v>
       </c>
       <c r="J247">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
+      <c r="A248" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B248">
@@ -8068,21 +8316,21 @@
       <c r="E248">
         <v>26.439999999999998</v>
       </c>
-      <c r="F248" t="s">
+      <c r="F248" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H248" t="s">
-        <v>88</v>
+        <v>159</v>
       </c>
       <c r="I248" t="s">
         <v>76</v>
       </c>
       <c r="J248">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
+      <c r="A249" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B249">
@@ -8094,21 +8342,21 @@
       <c r="E249">
         <v>29.1944444444444</v>
       </c>
-      <c r="F249" t="s">
+      <c r="F249" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H249" t="s">
-        <v>88</v>
+        <v>159</v>
       </c>
       <c r="I249" t="s">
         <v>76</v>
       </c>
       <c r="J249">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
+      <c r="A250" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B250">
@@ -8120,21 +8368,21 @@
       <c r="E250">
         <v>29.1944444444444</v>
       </c>
-      <c r="F250" t="s">
+      <c r="F250" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H250" t="s">
-        <v>88</v>
+        <v>159</v>
       </c>
       <c r="I250" t="s">
         <v>76</v>
       </c>
       <c r="J250">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
+      <c r="A251" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B251">
@@ -8146,21 +8394,21 @@
       <c r="E251">
         <v>30.911111111111115</v>
       </c>
-      <c r="F251" t="s">
+      <c r="F251" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H251" t="s">
-        <v>88</v>
+        <v>159</v>
       </c>
       <c r="I251" t="s">
         <v>76</v>
       </c>
       <c r="J251">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
+      <c r="A252" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B252">
@@ -8172,21 +8420,21 @@
       <c r="E252">
         <v>33</v>
       </c>
-      <c r="F252" t="s">
+      <c r="F252" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H252" t="s">
-        <v>88</v>
+        <v>159</v>
       </c>
       <c r="I252" t="s">
         <v>76</v>
       </c>
       <c r="J252">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
+      <c r="A253" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B253">
@@ -8198,21 +8446,21 @@
       <c r="E253">
         <v>30.911111111111115</v>
       </c>
-      <c r="F253" t="s">
+      <c r="F253" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H253" t="s">
-        <v>88</v>
+        <v>159</v>
       </c>
       <c r="I253" t="s">
         <v>76</v>
       </c>
       <c r="J253">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
+      <c r="A254" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B254">
@@ -8224,21 +8472,21 @@
       <c r="E254">
         <v>29.1944444444444</v>
       </c>
-      <c r="F254" t="s">
+      <c r="F254" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H254" t="s">
-        <v>88</v>
+        <v>159</v>
       </c>
       <c r="I254" t="s">
         <v>76</v>
       </c>
       <c r="J254">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
+      <c r="A255" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B255">
@@ -8250,21 +8498,21 @@
       <c r="E255">
         <v>15.45</v>
       </c>
-      <c r="F255" t="s">
+      <c r="F255" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H255" t="s">
-        <v>88</v>
+        <v>159</v>
       </c>
       <c r="I255" t="s">
         <v>76</v>
       </c>
       <c r="J255">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
+      <c r="A256" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B256">
@@ -8276,21 +8524,21 @@
       <c r="E256">
         <v>29.1944444444444</v>
       </c>
-      <c r="F256" t="s">
+      <c r="F256" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H256" t="s">
-        <v>88</v>
+        <v>159</v>
       </c>
       <c r="I256" t="s">
         <v>76</v>
       </c>
       <c r="J256">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
+      <c r="A257" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B257">
@@ -8302,21 +8550,21 @@
       <c r="E257">
         <v>33</v>
       </c>
-      <c r="F257" t="s">
+      <c r="F257" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H257" t="s">
-        <v>88</v>
+        <v>159</v>
       </c>
       <c r="I257" t="s">
         <v>76</v>
       </c>
       <c r="J257">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
+      <c r="A258" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B258">
@@ -8328,21 +8576,21 @@
       <c r="E258">
         <v>33</v>
       </c>
-      <c r="F258" t="s">
+      <c r="F258" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H258" t="s">
-        <v>88</v>
+        <v>159</v>
       </c>
       <c r="I258" t="s">
         <v>76</v>
       </c>
       <c r="J258">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
+      <c r="A259" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B259">
@@ -8354,21 +8602,21 @@
       <c r="E259">
         <v>30.911111111111115</v>
       </c>
-      <c r="F259" t="s">
+      <c r="F259" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H259" t="s">
-        <v>88</v>
+        <v>159</v>
       </c>
       <c r="I259" t="s">
         <v>76</v>
       </c>
       <c r="J259">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A260" t="s">
+      <c r="A260" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B260">
@@ -8380,21 +8628,21 @@
       <c r="E260">
         <v>33</v>
       </c>
-      <c r="F260" t="s">
+      <c r="F260" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H260" t="s">
-        <v>88</v>
+        <v>159</v>
       </c>
       <c r="I260" t="s">
         <v>76</v>
       </c>
       <c r="J260">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
+      <c r="A261" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B261">
@@ -8406,21 +8654,21 @@
       <c r="E261">
         <v>38.449999999999996</v>
       </c>
-      <c r="F261" t="s">
+      <c r="F261" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H261" t="s">
-        <v>88</v>
+        <v>159</v>
       </c>
       <c r="I261" t="s">
         <v>76</v>
       </c>
       <c r="J261">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A262" t="s">
+      <c r="A262" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B262">
@@ -8432,21 +8680,21 @@
       <c r="E262">
         <v>38.449999999999996</v>
       </c>
-      <c r="F262" t="s">
+      <c r="F262" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H262" t="s">
-        <v>88</v>
+        <v>159</v>
       </c>
       <c r="I262" t="s">
         <v>76</v>
       </c>
       <c r="J262">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
+      <c r="A263" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B263">
@@ -8458,21 +8706,21 @@
       <c r="E263">
         <v>37.712499999999999</v>
       </c>
-      <c r="F263" t="s">
+      <c r="F263" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H263" t="s">
-        <v>88</v>
+        <v>159</v>
       </c>
       <c r="I263" t="s">
         <v>76</v>
       </c>
       <c r="J263">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A264" t="s">
+      <c r="A264" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B264">
@@ -8484,21 +8732,21 @@
       <c r="E264">
         <v>22.224999999999998</v>
       </c>
-      <c r="F264" t="s">
+      <c r="F264" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H264" t="s">
-        <v>88</v>
+        <v>159</v>
       </c>
       <c r="I264" t="s">
         <v>76</v>
       </c>
       <c r="J264">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A265" t="s">
+      <c r="A265" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B265">
@@ -8510,21 +8758,3323 @@
       <c r="E265">
         <v>33.514285714285712</v>
       </c>
-      <c r="F265" t="s">
+      <c r="F265" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H265" t="s">
+        <v>159</v>
+      </c>
+      <c r="I265" t="s">
+        <v>76</v>
+      </c>
+      <c r="J265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A266" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B266">
+        <v>1</v>
+      </c>
+      <c r="D266">
+        <v>5.0169800000000002</v>
+      </c>
+      <c r="E266">
+        <v>10.008698000000001</v>
+      </c>
+      <c r="F266" s="1">
+        <v>1</v>
+      </c>
+      <c r="H266" t="s">
+        <v>77</v>
+      </c>
+      <c r="I266" t="s">
+        <v>76</v>
+      </c>
+      <c r="J266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A267" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B267">
+        <v>2</v>
+      </c>
+      <c r="D267">
+        <v>3.1329980000000002</v>
+      </c>
+      <c r="E267">
+        <v>10.462020000000001</v>
+      </c>
+      <c r="F267" s="1">
+        <v>2</v>
+      </c>
+      <c r="H267" t="s">
+        <v>77</v>
+      </c>
+      <c r="I267" t="s">
+        <v>76</v>
+      </c>
+      <c r="J267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A268" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B268">
+        <v>1</v>
+      </c>
+      <c r="D268">
+        <v>3.1329980000000002</v>
+      </c>
+      <c r="E268">
+        <v>10.462020000000001</v>
+      </c>
+      <c r="F268" s="1">
+        <v>2</v>
+      </c>
+      <c r="H268" t="s">
+        <v>77</v>
+      </c>
+      <c r="I268" t="s">
+        <v>76</v>
+      </c>
+      <c r="J268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A269" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B269">
+        <v>2</v>
+      </c>
+      <c r="D269">
+        <v>1.585507</v>
+      </c>
+      <c r="E269">
+        <v>17.828506999999998</v>
+      </c>
+      <c r="F269" s="1">
+        <v>3</v>
+      </c>
+      <c r="H269" t="s">
+        <v>77</v>
+      </c>
+      <c r="I269" t="s">
+        <v>76</v>
+      </c>
+      <c r="J269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A270" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B270">
+        <v>1</v>
+      </c>
+      <c r="D270">
+        <v>1.585507</v>
+      </c>
+      <c r="E270">
+        <v>17.828506999999998</v>
+      </c>
+      <c r="F270" s="1">
+        <v>3</v>
+      </c>
+      <c r="H270" t="s">
+        <v>77</v>
+      </c>
+      <c r="I270" t="s">
+        <v>76</v>
+      </c>
+      <c r="J270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A271" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B271">
+        <v>2</v>
+      </c>
+      <c r="D271">
+        <v>-2.1159409999999998</v>
+      </c>
+      <c r="E271">
+        <v>20.246224999999999</v>
+      </c>
+      <c r="F271" s="1">
+        <v>4</v>
+      </c>
+      <c r="H271" t="s">
+        <v>77</v>
+      </c>
+      <c r="I271" t="s">
+        <v>76</v>
+      </c>
+      <c r="J271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A272" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B272">
+        <v>1</v>
+      </c>
+      <c r="D272">
+        <v>-2.1159409999999998</v>
+      </c>
+      <c r="E272">
+        <v>20.246224999999999</v>
+      </c>
+      <c r="F272" s="1">
+        <v>4</v>
+      </c>
+      <c r="H272" t="s">
+        <v>77</v>
+      </c>
+      <c r="I272" t="s">
+        <v>76</v>
+      </c>
+      <c r="J272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A273" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B273">
+        <v>2</v>
+      </c>
+      <c r="D273">
+        <v>-5.3197950000000001</v>
+      </c>
+      <c r="E273">
+        <v>18.602931999999999</v>
+      </c>
+      <c r="F273" s="1">
+        <v>5</v>
+      </c>
+      <c r="H273" t="s">
+        <v>77</v>
+      </c>
+      <c r="I273" t="s">
+        <v>76</v>
+      </c>
+      <c r="J273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A274" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B274">
+        <v>1</v>
+      </c>
+      <c r="D274">
+        <v>-5.3197950000000001</v>
+      </c>
+      <c r="E274">
+        <v>18.602931999999999</v>
+      </c>
+      <c r="F274" s="1">
+        <v>5</v>
+      </c>
+      <c r="H274" t="s">
+        <v>77</v>
+      </c>
+      <c r="I274" t="s">
+        <v>76</v>
+      </c>
+      <c r="J274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A275" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B275">
+        <v>2</v>
+      </c>
+      <c r="D275">
+        <v>-9.2535319999999999</v>
+      </c>
+      <c r="E275">
+        <v>21.927295000000001</v>
+      </c>
+      <c r="F275" s="1">
+        <v>6</v>
+      </c>
+      <c r="H275" t="s">
+        <v>77</v>
+      </c>
+      <c r="I275" t="s">
+        <v>76</v>
+      </c>
+      <c r="J275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A276" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B276">
+        <v>1</v>
+      </c>
+      <c r="D276">
+        <v>-9.2535319999999999</v>
+      </c>
+      <c r="E276">
+        <v>21.927295000000001</v>
+      </c>
+      <c r="F276" s="1">
+        <v>6</v>
+      </c>
+      <c r="H276" t="s">
+        <v>77</v>
+      </c>
+      <c r="I276" t="s">
+        <v>76</v>
+      </c>
+      <c r="J276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A277" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B277">
+        <v>2</v>
+      </c>
+      <c r="D277">
+        <v>-4.8494429999999999</v>
+      </c>
+      <c r="E277">
+        <v>27.027179</v>
+      </c>
+      <c r="F277" s="1">
+        <v>7</v>
+      </c>
+      <c r="H277" t="s">
+        <v>77</v>
+      </c>
+      <c r="I277" t="s">
+        <v>76</v>
+      </c>
+      <c r="J277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A278" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B278">
+        <v>1</v>
+      </c>
+      <c r="D278">
+        <v>-4.8494429999999999</v>
+      </c>
+      <c r="E278">
+        <v>27.027179</v>
+      </c>
+      <c r="F278" s="1">
+        <v>7</v>
+      </c>
+      <c r="H278" t="s">
+        <v>77</v>
+      </c>
+      <c r="I278" t="s">
+        <v>76</v>
+      </c>
+      <c r="J278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A279" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B279">
+        <v>2</v>
+      </c>
+      <c r="D279">
+        <v>-4.4917559999999996</v>
+      </c>
+      <c r="E279">
+        <v>27.971591</v>
+      </c>
+      <c r="F279" s="1">
+        <v>8</v>
+      </c>
+      <c r="H279" t="s">
+        <v>77</v>
+      </c>
+      <c r="I279" t="s">
+        <v>76</v>
+      </c>
+      <c r="J279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A280" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B280">
+        <v>1</v>
+      </c>
+      <c r="D280">
+        <v>-4.4917559999999996</v>
+      </c>
+      <c r="E280">
+        <v>27.971591</v>
+      </c>
+      <c r="F280" s="1">
+        <v>8</v>
+      </c>
+      <c r="H280" t="s">
+        <v>77</v>
+      </c>
+      <c r="I280" t="s">
+        <v>76</v>
+      </c>
+      <c r="J280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A281" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B281">
+        <v>2</v>
+      </c>
+      <c r="D281">
+        <v>-3.7193230000000002</v>
+      </c>
+      <c r="E281">
+        <v>32.297041</v>
+      </c>
+      <c r="F281" s="1">
+        <v>9</v>
+      </c>
+      <c r="H281" t="s">
+        <v>77</v>
+      </c>
+      <c r="I281" t="s">
+        <v>76</v>
+      </c>
+      <c r="J281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A282" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B282">
+        <v>1</v>
+      </c>
+      <c r="D282">
+        <v>-3.7193230000000002</v>
+      </c>
+      <c r="E282">
+        <v>32.297041</v>
+      </c>
+      <c r="F282" s="1">
+        <v>9</v>
+      </c>
+      <c r="H282" t="s">
+        <v>77</v>
+      </c>
+      <c r="I282" t="s">
+        <v>76</v>
+      </c>
+      <c r="J282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A283" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B283">
+        <v>2</v>
+      </c>
+      <c r="D283">
+        <v>-5.225752</v>
+      </c>
+      <c r="E283">
+        <v>33.147019999999998</v>
+      </c>
+      <c r="F283" s="1">
+        <v>10</v>
+      </c>
+      <c r="H283" t="s">
+        <v>77</v>
+      </c>
+      <c r="I283" t="s">
+        <v>76</v>
+      </c>
+      <c r="J283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A284" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B284">
+        <v>1</v>
+      </c>
+      <c r="D284">
+        <v>-5.225752</v>
+      </c>
+      <c r="E284">
+        <v>33.147019999999998</v>
+      </c>
+      <c r="F284" s="1">
+        <v>10</v>
+      </c>
+      <c r="H284" t="s">
+        <v>77</v>
+      </c>
+      <c r="I284" t="s">
+        <v>76</v>
+      </c>
+      <c r="J284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A285" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B285">
+        <v>2</v>
+      </c>
+      <c r="D285">
+        <v>-7.3471859999999998</v>
+      </c>
+      <c r="E285">
+        <v>33.845891999999999</v>
+      </c>
+      <c r="F285" s="1">
+        <v>11</v>
+      </c>
+      <c r="H285" t="s">
+        <v>77</v>
+      </c>
+      <c r="I285" t="s">
+        <v>76</v>
+      </c>
+      <c r="J285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A286" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B286">
+        <v>1</v>
+      </c>
+      <c r="D286">
+        <v>-7.3471859999999998</v>
+      </c>
+      <c r="E286">
+        <v>33.845891999999999</v>
+      </c>
+      <c r="F286" s="1">
+        <v>11</v>
+      </c>
+      <c r="H286" t="s">
+        <v>77</v>
+      </c>
+      <c r="I286" t="s">
+        <v>76</v>
+      </c>
+      <c r="J286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A287" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B287">
+        <v>2</v>
+      </c>
+      <c r="D287">
+        <v>-13.529729</v>
+      </c>
+      <c r="E287">
+        <v>31.428173000000001</v>
+      </c>
+      <c r="F287" s="1">
+        <v>12</v>
+      </c>
+      <c r="H287" t="s">
+        <v>77</v>
+      </c>
+      <c r="I287" t="s">
+        <v>76</v>
+      </c>
+      <c r="J287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A288" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B288">
+        <v>1</v>
+      </c>
+      <c r="D288">
+        <v>-13.529729</v>
+      </c>
+      <c r="E288">
+        <v>31.428173000000001</v>
+      </c>
+      <c r="F288" s="1">
+        <v>12</v>
+      </c>
+      <c r="H288" t="s">
+        <v>77</v>
+      </c>
+      <c r="I288" t="s">
+        <v>76</v>
+      </c>
+      <c r="J288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A289" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B289">
+        <v>2</v>
+      </c>
+      <c r="D289">
+        <v>-17.514495</v>
+      </c>
+      <c r="E289">
+        <v>31.711500000000001</v>
+      </c>
+      <c r="F289" s="1">
+        <v>13</v>
+      </c>
+      <c r="H289" t="s">
+        <v>77</v>
+      </c>
+      <c r="I289" t="s">
+        <v>76</v>
+      </c>
+      <c r="J289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A290" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B290">
+        <v>1</v>
+      </c>
+      <c r="D290">
+        <v>-17.514495</v>
+      </c>
+      <c r="E290">
+        <v>31.711500000000001</v>
+      </c>
+      <c r="F290" s="1">
+        <v>13</v>
+      </c>
+      <c r="H290" t="s">
+        <v>77</v>
+      </c>
+      <c r="I290" t="s">
+        <v>76</v>
+      </c>
+      <c r="J290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A291" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B291">
+        <v>2</v>
+      </c>
+      <c r="D291">
+        <v>-21.096854</v>
+      </c>
+      <c r="E291">
+        <v>30.427087</v>
+      </c>
+      <c r="F291" s="1">
+        <v>14</v>
+      </c>
+      <c r="H291" t="s">
+        <v>77</v>
+      </c>
+      <c r="I291" t="s">
+        <v>76</v>
+      </c>
+      <c r="J291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A292" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B292">
+        <v>1</v>
+      </c>
+      <c r="D292">
+        <v>-9.2535319999999999</v>
+      </c>
+      <c r="E292">
+        <v>21.927295000000001</v>
+      </c>
+      <c r="F292" s="1">
+        <v>6</v>
+      </c>
+      <c r="H292" t="s">
+        <v>77</v>
+      </c>
+      <c r="I292" t="s">
+        <v>76</v>
+      </c>
+      <c r="J292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A293" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B293">
+        <v>2</v>
+      </c>
+      <c r="D293">
+        <v>-16.031589</v>
+      </c>
+      <c r="E293">
+        <v>19.415133999999998</v>
+      </c>
+      <c r="F293" s="1">
+        <v>19</v>
+      </c>
+      <c r="H293" t="s">
+        <v>77</v>
+      </c>
+      <c r="I293" t="s">
+        <v>76</v>
+      </c>
+      <c r="J293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A294" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B294">
+        <v>1</v>
+      </c>
+      <c r="D294">
+        <v>-3.7193230000000002</v>
+      </c>
+      <c r="E294">
+        <v>32.297041</v>
+      </c>
+      <c r="F294" s="1">
+        <v>9</v>
+      </c>
+      <c r="H294" t="s">
+        <v>77</v>
+      </c>
+      <c r="I294" t="s">
+        <v>76</v>
+      </c>
+      <c r="J294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A295" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B295">
+        <v>2</v>
+      </c>
+      <c r="D295">
+        <v>-1.1719189999999999</v>
+      </c>
+      <c r="E295">
+        <v>31.560392</v>
+      </c>
+      <c r="F295" s="1">
+        <v>18</v>
+      </c>
+      <c r="H295" t="s">
+        <v>77</v>
+      </c>
+      <c r="I295" t="s">
+        <v>76</v>
+      </c>
+      <c r="J295">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A296" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B296">
+        <v>1</v>
+      </c>
+      <c r="D296">
+        <v>-7.3471859999999998</v>
+      </c>
+      <c r="E296">
+        <v>33.845891999999999</v>
+      </c>
+      <c r="F296" s="1">
+        <v>11</v>
+      </c>
+      <c r="H296" t="s">
+        <v>77</v>
+      </c>
+      <c r="I296" t="s">
+        <v>76</v>
+      </c>
+      <c r="J296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A297" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B297">
+        <v>2</v>
+      </c>
+      <c r="D297">
+        <v>-3.8889450000000001</v>
+      </c>
+      <c r="E297">
+        <v>38.511333</v>
+      </c>
+      <c r="F297" s="1">
+        <v>17</v>
+      </c>
+      <c r="H297" t="s">
+        <v>77</v>
+      </c>
+      <c r="I297" t="s">
+        <v>76</v>
+      </c>
+      <c r="J297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A298" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B298">
+        <v>1</v>
+      </c>
+      <c r="D298">
+        <v>-17.514495</v>
+      </c>
+      <c r="E298">
+        <v>31.711500000000001</v>
+      </c>
+      <c r="F298" s="1">
+        <v>13</v>
+      </c>
+      <c r="H298" t="s">
+        <v>77</v>
+      </c>
+      <c r="I298" t="s">
+        <v>76</v>
+      </c>
+      <c r="J298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A299" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B299">
+        <v>2</v>
+      </c>
+      <c r="D299">
+        <v>-15.231242999999999</v>
+      </c>
+      <c r="E299">
+        <v>33.411458000000003</v>
+      </c>
+      <c r="F299" s="1">
+        <v>15</v>
+      </c>
+      <c r="H299" t="s">
+        <v>77</v>
+      </c>
+      <c r="I299" t="s">
+        <v>76</v>
+      </c>
+      <c r="J299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A300" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B300">
+        <v>1</v>
+      </c>
+      <c r="D300">
+        <v>-15.231242999999999</v>
+      </c>
+      <c r="E300">
+        <v>33.411458000000003</v>
+      </c>
+      <c r="F300" s="1">
+        <v>15</v>
+      </c>
+      <c r="H300" t="s">
+        <v>77</v>
+      </c>
+      <c r="I300" t="s">
+        <v>76</v>
+      </c>
+      <c r="J300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A301" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B301">
+        <v>2</v>
+      </c>
+      <c r="D301">
+        <v>-14.7386</v>
+      </c>
+      <c r="E301">
+        <v>39.210205000000002</v>
+      </c>
+      <c r="F301" s="1">
+        <v>16</v>
+      </c>
+      <c r="H301" t="s">
+        <v>109</v>
+      </c>
+      <c r="I301" t="s">
+        <v>76</v>
+      </c>
+      <c r="J301">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A302" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B302">
+        <v>1</v>
+      </c>
+      <c r="C302" s="1"/>
+      <c r="D302">
+        <v>5.3977839999999997</v>
+      </c>
+      <c r="E302">
+        <v>10.230079</v>
+      </c>
+      <c r="F302" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H302" t="s">
+        <v>61</v>
+      </c>
+      <c r="I302" t="s">
+        <v>76</v>
+      </c>
+      <c r="J302">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A303" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B303">
+        <v>2</v>
+      </c>
+      <c r="C303" s="1"/>
+      <c r="D303">
+        <v>2.8473229999999998</v>
+      </c>
+      <c r="E303">
+        <v>11.575024000000001</v>
+      </c>
+      <c r="F303" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H303" t="s">
+        <v>61</v>
+      </c>
+      <c r="I303" t="s">
+        <v>76</v>
+      </c>
+      <c r="J303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A304" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B304">
+        <v>1</v>
+      </c>
+      <c r="D304">
+        <v>2.8473229999999998</v>
+      </c>
+      <c r="E304">
+        <v>11.575024000000001</v>
+      </c>
+      <c r="F304" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H304" t="s">
+        <v>61</v>
+      </c>
+      <c r="I304" t="s">
+        <v>76</v>
+      </c>
+      <c r="J304">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A305" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B305">
+        <v>2</v>
+      </c>
+      <c r="C305" s="1"/>
+      <c r="D305">
+        <v>4.0385499999999999</v>
+      </c>
+      <c r="E305">
+        <v>13.090456</v>
+      </c>
+      <c r="F305" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H305" t="s">
+        <v>61</v>
+      </c>
+      <c r="I305" t="s">
+        <v>76</v>
+      </c>
+      <c r="J305">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A306" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B306">
+        <v>1</v>
+      </c>
+      <c r="D306">
+        <v>2.8473229999999998</v>
+      </c>
+      <c r="E306">
+        <v>11.575024000000001</v>
+      </c>
+      <c r="F306" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H306" t="s">
+        <v>61</v>
+      </c>
+      <c r="I306" t="s">
+        <v>76</v>
+      </c>
+      <c r="J306">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A307" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B307">
+        <v>2</v>
+      </c>
+      <c r="C307" s="1"/>
+      <c r="D307">
+        <v>-0.48544900000000002</v>
+      </c>
+      <c r="E307">
+        <v>13.317771</v>
+      </c>
+      <c r="F307" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H307" t="s">
+        <v>61</v>
+      </c>
+      <c r="I307" t="s">
+        <v>76</v>
+      </c>
+      <c r="J307">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A308" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B308">
+        <v>1</v>
+      </c>
+      <c r="D308">
+        <v>-0.48544900000000002</v>
+      </c>
+      <c r="E308">
+        <v>13.317771</v>
+      </c>
+      <c r="F308" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H308" t="s">
+        <v>61</v>
+      </c>
+      <c r="I308" t="s">
+        <v>76</v>
+      </c>
+      <c r="J308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A309" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B309">
+        <v>2</v>
+      </c>
+      <c r="C309" s="1"/>
+      <c r="D309">
+        <v>-2.3412069999999998</v>
+      </c>
+      <c r="E309">
+        <v>16.234977000000001</v>
+      </c>
+      <c r="F309" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H309" t="s">
+        <v>61</v>
+      </c>
+      <c r="I309" t="s">
+        <v>76</v>
+      </c>
+      <c r="J309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A310" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B310">
+        <v>1</v>
+      </c>
+      <c r="D310">
+        <v>-2.3412069999999998</v>
+      </c>
+      <c r="E310">
+        <v>16.234977000000001</v>
+      </c>
+      <c r="F310" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H310" t="s">
+        <v>61</v>
+      </c>
+      <c r="I310" t="s">
+        <v>76</v>
+      </c>
+      <c r="J310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A311" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B311">
+        <v>2</v>
+      </c>
+      <c r="C311" s="1"/>
+      <c r="D311">
+        <v>-0.94004200000000004</v>
+      </c>
+      <c r="E311">
+        <v>19.322669999999999</v>
+      </c>
+      <c r="F311" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H311" t="s">
+        <v>61</v>
+      </c>
+      <c r="I311" t="s">
+        <v>76</v>
+      </c>
+      <c r="J311">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A312" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B312">
+        <v>1</v>
+      </c>
+      <c r="D312">
+        <v>-2.3412069999999998</v>
+      </c>
+      <c r="E312">
+        <v>16.234977000000001</v>
+      </c>
+      <c r="F312" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H312" t="s">
+        <v>61</v>
+      </c>
+      <c r="I312" t="s">
+        <v>76</v>
+      </c>
+      <c r="J312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A313" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B313">
+        <v>2</v>
+      </c>
+      <c r="C313" s="1"/>
+      <c r="D313">
+        <v>-3.4762979999999999</v>
+      </c>
+      <c r="E313">
+        <v>16.329692000000001</v>
+      </c>
+      <c r="F313" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H313" t="s">
+        <v>61</v>
+      </c>
+      <c r="I313" t="s">
+        <v>76</v>
+      </c>
+      <c r="J313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A314" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B314">
+        <v>1</v>
+      </c>
+      <c r="D314">
+        <v>-3.4762979999999999</v>
+      </c>
+      <c r="E314">
+        <v>16.329692000000001</v>
+      </c>
+      <c r="F314" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H314" t="s">
+        <v>61</v>
+      </c>
+      <c r="I314" t="s">
+        <v>76</v>
+      </c>
+      <c r="J314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A315" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B315">
+        <v>2</v>
+      </c>
+      <c r="C315" s="1"/>
+      <c r="D315">
+        <v>-3.8732799999999998</v>
+      </c>
+      <c r="E315">
+        <v>15.496204000000001</v>
+      </c>
+      <c r="F315" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H315" t="s">
+        <v>61</v>
+      </c>
+      <c r="I315" t="s">
+        <v>76</v>
+      </c>
+      <c r="J315">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A316" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B316">
+        <v>1</v>
+      </c>
+      <c r="D316">
+        <v>-3.8732799999999998</v>
+      </c>
+      <c r="E316">
+        <v>15.496204000000001</v>
+      </c>
+      <c r="F316" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H316" t="s">
+        <v>61</v>
+      </c>
+      <c r="I316" t="s">
+        <v>76</v>
+      </c>
+      <c r="J316">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A317" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B317">
+        <v>2</v>
+      </c>
+      <c r="C317" s="1"/>
+      <c r="D317">
+        <v>-4.3834090000000003</v>
+      </c>
+      <c r="E317">
+        <v>14.378572999999999</v>
+      </c>
+      <c r="F317" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H317" t="s">
+        <v>61</v>
+      </c>
+      <c r="I317" t="s">
+        <v>76</v>
+      </c>
+      <c r="J317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A318" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B318">
+        <v>1</v>
+      </c>
+      <c r="D318">
+        <v>-3.8732799999999998</v>
+      </c>
+      <c r="E318">
+        <v>15.496204000000001</v>
+      </c>
+      <c r="F318" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H318" t="s">
+        <v>61</v>
+      </c>
+      <c r="I318" t="s">
+        <v>76</v>
+      </c>
+      <c r="J318">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A319" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B319">
+        <v>2</v>
+      </c>
+      <c r="C319" s="1"/>
+      <c r="D319">
+        <v>-2.8142990000000001</v>
+      </c>
+      <c r="E319">
+        <v>13.564029</v>
+      </c>
+      <c r="F319" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H319" t="s">
+        <v>61</v>
+      </c>
+      <c r="I319" t="s">
+        <v>76</v>
+      </c>
+      <c r="J319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A320" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B320">
+        <v>1</v>
+      </c>
+      <c r="D320">
+        <v>-3.4762979999999999</v>
+      </c>
+      <c r="E320">
+        <v>16.329692000000001</v>
+      </c>
+      <c r="F320" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H320" t="s">
+        <v>61</v>
+      </c>
+      <c r="I320" t="s">
+        <v>76</v>
+      </c>
+      <c r="J320">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A321" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B321">
+        <v>2</v>
+      </c>
+      <c r="C321" s="1"/>
+      <c r="D321">
+        <v>-5.9492330000000004</v>
+      </c>
+      <c r="E321">
+        <v>18.223981999999999</v>
+      </c>
+      <c r="F321" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H321" t="s">
+        <v>61</v>
+      </c>
+      <c r="I321" t="s">
+        <v>76</v>
+      </c>
+      <c r="J321">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A322" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B322">
+        <v>1</v>
+      </c>
+      <c r="D322">
+        <v>-5.9492330000000004</v>
+      </c>
+      <c r="E322">
+        <v>18.223981999999999</v>
+      </c>
+      <c r="F322" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H322" t="s">
+        <v>61</v>
+      </c>
+      <c r="I322" t="s">
+        <v>76</v>
+      </c>
+      <c r="J322">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A323" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B323">
+        <v>2</v>
+      </c>
+      <c r="C323" s="1"/>
+      <c r="D323">
+        <v>-7.3791279999999997</v>
+      </c>
+      <c r="E323">
+        <v>21.198017</v>
+      </c>
+      <c r="F323" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H323" t="s">
+        <v>61</v>
+      </c>
+      <c r="I323" t="s">
+        <v>76</v>
+      </c>
+      <c r="J323">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A324" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B324">
+        <v>1</v>
+      </c>
+      <c r="D324">
+        <v>-7.3791279999999997</v>
+      </c>
+      <c r="E324">
+        <v>21.198017</v>
+      </c>
+      <c r="F324" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H324" t="s">
+        <v>61</v>
+      </c>
+      <c r="I324" t="s">
+        <v>76</v>
+      </c>
+      <c r="J324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A325" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B325">
+        <v>2</v>
+      </c>
+      <c r="C325" s="1"/>
+      <c r="D325">
+        <v>-12.175259</v>
+      </c>
+      <c r="E325">
+        <v>21.728418000000001</v>
+      </c>
+      <c r="F325" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H325" t="s">
+        <v>61</v>
+      </c>
+      <c r="I325" t="s">
+        <v>76</v>
+      </c>
+      <c r="J325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A326" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B326">
+        <v>1</v>
+      </c>
+      <c r="D326">
+        <v>-12.175259</v>
+      </c>
+      <c r="E326">
+        <v>21.728418000000001</v>
+      </c>
+      <c r="F326" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H326" t="s">
+        <v>61</v>
+      </c>
+      <c r="I326" t="s">
+        <v>76</v>
+      </c>
+      <c r="J326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A327" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B327">
+        <v>2</v>
+      </c>
+      <c r="C327" s="1"/>
+      <c r="D327">
+        <v>-14.038558</v>
+      </c>
+      <c r="E327">
+        <v>20.857043999999998</v>
+      </c>
+      <c r="F327" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H327" t="s">
+        <v>61</v>
+      </c>
+      <c r="I327" t="s">
+        <v>76</v>
+      </c>
+      <c r="J327">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A328" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B328">
+        <v>1</v>
+      </c>
+      <c r="D328">
+        <v>-7.3791279999999997</v>
+      </c>
+      <c r="E328">
+        <v>21.198017</v>
+      </c>
+      <c r="F328" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H328" t="s">
+        <v>61</v>
+      </c>
+      <c r="I328" t="s">
+        <v>76</v>
+      </c>
+      <c r="J328">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A329" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B329">
+        <v>2</v>
+      </c>
+      <c r="C329" s="1"/>
+      <c r="D329">
+        <v>-6.4953390000000004</v>
+      </c>
+      <c r="E329">
+        <v>25.498054</v>
+      </c>
+      <c r="F329" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H329" t="s">
+        <v>61</v>
+      </c>
+      <c r="I329" t="s">
+        <v>76</v>
+      </c>
+      <c r="J329">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A330" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B330">
+        <v>1</v>
+      </c>
+      <c r="D330">
+        <v>-6.4953390000000004</v>
+      </c>
+      <c r="E330">
+        <v>25.498054</v>
+      </c>
+      <c r="F330" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H330" t="s">
+        <v>61</v>
+      </c>
+      <c r="I330" t="s">
+        <v>76</v>
+      </c>
+      <c r="J330">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A331" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B331">
+        <v>2</v>
+      </c>
+      <c r="C331" s="1"/>
+      <c r="D331">
+        <v>-5.3460049999999999</v>
+      </c>
+      <c r="E331">
+        <v>30.006464000000001</v>
+      </c>
+      <c r="F331" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H331" t="s">
+        <v>61</v>
+      </c>
+      <c r="I331" t="s">
+        <v>76</v>
+      </c>
+      <c r="J331">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A332" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B332">
+        <v>1</v>
+      </c>
+      <c r="D332">
+        <v>-5.3460049999999999</v>
+      </c>
+      <c r="E332">
+        <v>30.006464000000001</v>
+      </c>
+      <c r="F332" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H332" t="s">
+        <v>61</v>
+      </c>
+      <c r="I332" t="s">
+        <v>76</v>
+      </c>
+      <c r="J332">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A333" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B333">
+        <v>2</v>
+      </c>
+      <c r="C333" s="1"/>
+      <c r="D333">
+        <v>-5.836176</v>
+      </c>
+      <c r="E333">
+        <v>31.881810999999999</v>
+      </c>
+      <c r="F333" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H333" t="s">
+        <v>61</v>
+      </c>
+      <c r="I333" t="s">
+        <v>76</v>
+      </c>
+      <c r="J333">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A334" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B334">
+        <v>1</v>
+      </c>
+      <c r="D334">
+        <v>-5.836176</v>
+      </c>
+      <c r="E334">
+        <v>31.881810999999999</v>
+      </c>
+      <c r="F334" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H334" t="s">
+        <v>61</v>
+      </c>
+      <c r="I334" t="s">
+        <v>76</v>
+      </c>
+      <c r="J334">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A335" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B335">
+        <v>2</v>
+      </c>
+      <c r="C335" s="1"/>
+      <c r="D335">
+        <v>-3.249374</v>
+      </c>
+      <c r="E335">
+        <v>31.446124000000001</v>
+      </c>
+      <c r="F335" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H335" t="s">
+        <v>61</v>
+      </c>
+      <c r="I335" t="s">
+        <v>76</v>
+      </c>
+      <c r="J335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A336" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B336">
+        <v>1</v>
+      </c>
+      <c r="D336">
+        <v>-3.249374</v>
+      </c>
+      <c r="E336">
+        <v>31.446124000000001</v>
+      </c>
+      <c r="F336" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H336" t="s">
+        <v>61</v>
+      </c>
+      <c r="I336" t="s">
+        <v>76</v>
+      </c>
+      <c r="J336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A337" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B337">
+        <v>2</v>
+      </c>
+      <c r="C337" s="1"/>
+      <c r="D337">
+        <v>-1.9626170000000001</v>
+      </c>
+      <c r="E337">
+        <v>33.169927999999999</v>
+      </c>
+      <c r="F337" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H337" t="s">
+        <v>61</v>
+      </c>
+      <c r="I337" t="s">
+        <v>76</v>
+      </c>
+      <c r="J337">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A338" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B338">
+        <v>1</v>
+      </c>
+      <c r="D338">
+        <v>-5.836176</v>
+      </c>
+      <c r="E338">
+        <v>31.881810999999999</v>
+      </c>
+      <c r="F338" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H338" t="s">
+        <v>61</v>
+      </c>
+      <c r="I338" t="s">
+        <v>76</v>
+      </c>
+      <c r="J338">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A339" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B339">
+        <v>2</v>
+      </c>
+      <c r="C339" s="1"/>
+      <c r="D339">
+        <v>-7.6420529999999998</v>
+      </c>
+      <c r="E339">
+        <v>35.708275999999998</v>
+      </c>
+      <c r="F339" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H339" t="s">
+        <v>61</v>
+      </c>
+      <c r="I339" t="s">
+        <v>76</v>
+      </c>
+      <c r="J339">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A340" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B340">
+        <v>1</v>
+      </c>
+      <c r="D340">
+        <v>-7.6420529999999998</v>
+      </c>
+      <c r="E340">
+        <v>35.708275999999998</v>
+      </c>
+      <c r="F340" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H340" t="s">
+        <v>61</v>
+      </c>
+      <c r="I340" t="s">
+        <v>76</v>
+      </c>
+      <c r="J340">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A341" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B341">
+        <v>2</v>
+      </c>
+      <c r="C341" s="1"/>
+      <c r="D341">
+        <v>-5.6665479999999997</v>
+      </c>
+      <c r="E341">
+        <v>37.716222999999999</v>
+      </c>
+      <c r="F341" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H341" t="s">
+        <v>61</v>
+      </c>
+      <c r="I341" t="s">
+        <v>76</v>
+      </c>
+      <c r="J341">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A342" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B342">
+        <v>1</v>
+      </c>
+      <c r="D342">
+        <v>-5.6665479999999997</v>
+      </c>
+      <c r="E342">
+        <v>37.716222999999999</v>
+      </c>
+      <c r="F342" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H342" t="s">
+        <v>61</v>
+      </c>
+      <c r="I342" t="s">
+        <v>76</v>
+      </c>
+      <c r="J342">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A343" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B343">
+        <v>2</v>
+      </c>
+      <c r="C343" s="1"/>
+      <c r="D343">
+        <v>-4.3267449999999998</v>
+      </c>
+      <c r="E343">
+        <v>37.905652000000003</v>
+      </c>
+      <c r="F343" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H343" t="s">
+        <v>61</v>
+      </c>
+      <c r="I343" t="s">
+        <v>76</v>
+      </c>
+      <c r="J343">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A344" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B344">
+        <v>1</v>
+      </c>
+      <c r="D344">
+        <v>-4.3267449999999998</v>
+      </c>
+      <c r="E344">
+        <v>37.905652000000003</v>
+      </c>
+      <c r="F344" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H344" t="s">
+        <v>61</v>
+      </c>
+      <c r="I344" t="s">
+        <v>76</v>
+      </c>
+      <c r="J344">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A345" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B345">
+        <v>2</v>
+      </c>
+      <c r="C345" s="1"/>
+      <c r="D345">
+        <v>-3.2871990000000002</v>
+      </c>
+      <c r="E345">
+        <v>37.829881</v>
+      </c>
+      <c r="F345" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H345" t="s">
+        <v>61</v>
+      </c>
+      <c r="I345" t="s">
+        <v>76</v>
+      </c>
+      <c r="J345">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A346" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B346">
+        <v>1</v>
+      </c>
+      <c r="D346">
+        <v>-3.2871990000000002</v>
+      </c>
+      <c r="E346">
+        <v>37.829881</v>
+      </c>
+      <c r="F346" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H346" t="s">
+        <v>61</v>
+      </c>
+      <c r="I346" t="s">
+        <v>76</v>
+      </c>
+      <c r="J346">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A347" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B347">
+        <v>2</v>
+      </c>
+      <c r="C347" s="1"/>
+      <c r="D347">
+        <v>-0.88322000000000001</v>
+      </c>
+      <c r="E347">
+        <v>37.829881</v>
+      </c>
+      <c r="F347" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H347" t="s">
+        <v>61</v>
+      </c>
+      <c r="I347" t="s">
+        <v>76</v>
+      </c>
+      <c r="J347">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A348" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B348">
+        <v>1</v>
+      </c>
+      <c r="D348">
+        <v>-7.6420529999999998</v>
+      </c>
+      <c r="E348">
+        <v>35.708275999999998</v>
+      </c>
+      <c r="F348" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H348" t="s">
+        <v>61</v>
+      </c>
+      <c r="I348" t="s">
+        <v>76</v>
+      </c>
+      <c r="J348">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A349" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B349">
+        <v>2</v>
+      </c>
+      <c r="C349" s="1"/>
+      <c r="D349">
+        <v>-9.0663979999999995</v>
+      </c>
+      <c r="E349">
+        <v>36.257620000000003</v>
+      </c>
+      <c r="F349" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H349" t="s">
+        <v>61</v>
+      </c>
+      <c r="I349" t="s">
+        <v>76</v>
+      </c>
+      <c r="J349">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A350" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B350">
+        <v>1</v>
+      </c>
+      <c r="D350">
+        <v>-9.0663979999999995</v>
+      </c>
+      <c r="E350">
+        <v>36.257620000000003</v>
+      </c>
+      <c r="F350" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H350" t="s">
+        <v>61</v>
+      </c>
+      <c r="I350" t="s">
+        <v>76</v>
+      </c>
+      <c r="J350">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A351" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B351">
+        <v>2</v>
+      </c>
+      <c r="C351" s="1"/>
+      <c r="D351">
+        <v>-9.9258220000000001</v>
+      </c>
+      <c r="E351">
+        <v>36.750135999999998</v>
+      </c>
+      <c r="F351" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H351" t="s">
+        <v>61</v>
+      </c>
+      <c r="I351" t="s">
+        <v>76</v>
+      </c>
+      <c r="J351">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A352" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B352">
+        <v>1</v>
+      </c>
+      <c r="D352">
+        <v>-9.9258220000000001</v>
+      </c>
+      <c r="E352">
+        <v>36.750135999999998</v>
+      </c>
+      <c r="F352" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H352" t="s">
+        <v>61</v>
+      </c>
+      <c r="I352" t="s">
+        <v>76</v>
+      </c>
+      <c r="J352">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A353" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B353">
+        <v>2</v>
+      </c>
+      <c r="C353" s="1"/>
+      <c r="D353">
+        <v>-10.969023</v>
+      </c>
+      <c r="E353">
+        <v>38.417110999999998</v>
+      </c>
+      <c r="F353" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H353" t="s">
+        <v>61</v>
+      </c>
+      <c r="I353" t="s">
+        <v>76</v>
+      </c>
+      <c r="J353">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A354" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B354">
+        <v>1</v>
+      </c>
+      <c r="D354">
+        <v>-9.0663979999999995</v>
+      </c>
+      <c r="E354">
+        <v>36.257620000000003</v>
+      </c>
+      <c r="F354" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H354" t="s">
+        <v>61</v>
+      </c>
+      <c r="I354" t="s">
+        <v>76</v>
+      </c>
+      <c r="J354">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A355" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B355">
+        <v>2</v>
+      </c>
+      <c r="C355" s="1"/>
+      <c r="D355">
+        <v>-11.396437000000001</v>
+      </c>
+      <c r="E355">
+        <v>34.685360000000003</v>
+      </c>
+      <c r="F355" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H355" t="s">
+        <v>61</v>
+      </c>
+      <c r="I355" t="s">
+        <v>76</v>
+      </c>
+      <c r="J355">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A356" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B356">
+        <v>1</v>
+      </c>
+      <c r="D356">
+        <v>-11.396437000000001</v>
+      </c>
+      <c r="E356">
+        <v>34.685360000000003</v>
+      </c>
+      <c r="F356" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H356" t="s">
+        <v>61</v>
+      </c>
+      <c r="I356" t="s">
+        <v>76</v>
+      </c>
+      <c r="J356">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A357" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B357">
+        <v>2</v>
+      </c>
+      <c r="C357" s="1"/>
+      <c r="D357">
+        <v>-18.958936999999999</v>
+      </c>
+      <c r="E357">
+        <v>29.172975999999998</v>
+      </c>
+      <c r="F357" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H357" t="s">
+        <v>61</v>
+      </c>
+      <c r="I357" t="s">
+        <v>76</v>
+      </c>
+      <c r="J357">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A358" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B358">
+        <v>1</v>
+      </c>
+      <c r="F358" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H358" t="s">
         <v>88</v>
       </c>
-      <c r="I265" t="s">
-        <v>76</v>
-      </c>
-      <c r="J265">
+      <c r="I358" t="s">
+        <v>76</v>
+      </c>
+      <c r="J358">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A359" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B359">
+        <v>2</v>
+      </c>
+      <c r="F359" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H359" t="s">
+        <v>88</v>
+      </c>
+      <c r="I359" t="s">
+        <v>76</v>
+      </c>
+      <c r="J359">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A360" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B360">
+        <v>1</v>
+      </c>
+      <c r="F360" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H360" t="s">
+        <v>88</v>
+      </c>
+      <c r="I360" t="s">
+        <v>76</v>
+      </c>
+      <c r="J360">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A361" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B361">
+        <v>2</v>
+      </c>
+      <c r="F361" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H361" t="s">
+        <v>88</v>
+      </c>
+      <c r="I361" t="s">
+        <v>76</v>
+      </c>
+      <c r="J361">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A362" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B362">
+        <v>1</v>
+      </c>
+      <c r="F362" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H362" t="s">
+        <v>88</v>
+      </c>
+      <c r="I362" t="s">
+        <v>76</v>
+      </c>
+      <c r="J362">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A363" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B363">
+        <v>2</v>
+      </c>
+      <c r="F363" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H363" t="s">
+        <v>88</v>
+      </c>
+      <c r="I363" t="s">
+        <v>76</v>
+      </c>
+      <c r="J363">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A364" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B364">
+        <v>1</v>
+      </c>
+      <c r="F364" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H364" t="s">
+        <v>88</v>
+      </c>
+      <c r="I364" t="s">
+        <v>76</v>
+      </c>
+      <c r="J364">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A365" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B365">
+        <v>2</v>
+      </c>
+      <c r="F365" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H365" t="s">
+        <v>88</v>
+      </c>
+      <c r="I365" t="s">
+        <v>76</v>
+      </c>
+      <c r="J365">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A366" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B366">
+        <v>1</v>
+      </c>
+      <c r="F366" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H366" t="s">
+        <v>88</v>
+      </c>
+      <c r="I366" t="s">
+        <v>76</v>
+      </c>
+      <c r="J366">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A367" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B367">
+        <v>2</v>
+      </c>
+      <c r="F367" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H367" t="s">
+        <v>88</v>
+      </c>
+      <c r="I367" t="s">
+        <v>76</v>
+      </c>
+      <c r="J367">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A368" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B368">
+        <v>1</v>
+      </c>
+      <c r="F368" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H368" t="s">
+        <v>88</v>
+      </c>
+      <c r="I368" t="s">
+        <v>76</v>
+      </c>
+      <c r="J368">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A369" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B369">
+        <v>2</v>
+      </c>
+      <c r="F369" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H369" t="s">
+        <v>88</v>
+      </c>
+      <c r="I369" t="s">
+        <v>76</v>
+      </c>
+      <c r="J369">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A370" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B370">
+        <v>1</v>
+      </c>
+      <c r="F370" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H370" t="s">
+        <v>88</v>
+      </c>
+      <c r="I370" t="s">
+        <v>76</v>
+      </c>
+      <c r="J370">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A371" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B371">
+        <v>2</v>
+      </c>
+      <c r="F371" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H371" t="s">
+        <v>88</v>
+      </c>
+      <c r="I371" t="s">
+        <v>76</v>
+      </c>
+      <c r="J371">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A372" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B372">
+        <v>1</v>
+      </c>
+      <c r="F372" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H372" t="s">
+        <v>88</v>
+      </c>
+      <c r="I372" t="s">
+        <v>76</v>
+      </c>
+      <c r="J372">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A373" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B373">
+        <v>2</v>
+      </c>
+      <c r="F373" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H373" t="s">
+        <v>88</v>
+      </c>
+      <c r="I373" t="s">
+        <v>76</v>
+      </c>
+      <c r="J373">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A374" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B374">
+        <v>1</v>
+      </c>
+      <c r="F374" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H374" t="s">
+        <v>88</v>
+      </c>
+      <c r="I374" t="s">
+        <v>76</v>
+      </c>
+      <c r="J374">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A375" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B375">
+        <v>2</v>
+      </c>
+      <c r="F375" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H375" t="s">
+        <v>88</v>
+      </c>
+      <c r="I375" t="s">
+        <v>76</v>
+      </c>
+      <c r="J375">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A376" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B376">
+        <v>1</v>
+      </c>
+      <c r="F376" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H376" t="s">
+        <v>88</v>
+      </c>
+      <c r="I376" t="s">
+        <v>76</v>
+      </c>
+      <c r="J376">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A377" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B377">
+        <v>2</v>
+      </c>
+      <c r="F377" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H377" t="s">
+        <v>88</v>
+      </c>
+      <c r="I377" t="s">
+        <v>76</v>
+      </c>
+      <c r="J377">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A378" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B378">
+        <v>1</v>
+      </c>
+      <c r="F378" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H378" t="s">
+        <v>88</v>
+      </c>
+      <c r="I378" t="s">
+        <v>76</v>
+      </c>
+      <c r="J378">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A379" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B379">
+        <v>2</v>
+      </c>
+      <c r="F379" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H379" t="s">
+        <v>88</v>
+      </c>
+      <c r="I379" t="s">
+        <v>76</v>
+      </c>
+      <c r="J379">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A380" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B380">
+        <v>1</v>
+      </c>
+      <c r="F380" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H380" t="s">
+        <v>88</v>
+      </c>
+      <c r="I380" t="s">
+        <v>76</v>
+      </c>
+      <c r="J380">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A381" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B381">
+        <v>2</v>
+      </c>
+      <c r="F381" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H381" t="s">
+        <v>88</v>
+      </c>
+      <c r="I381" t="s">
+        <v>76</v>
+      </c>
+      <c r="J381">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A382" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B382">
+        <v>1</v>
+      </c>
+      <c r="F382" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H382" t="s">
+        <v>88</v>
+      </c>
+      <c r="I382" t="s">
+        <v>76</v>
+      </c>
+      <c r="J382">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A383" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B383">
+        <v>2</v>
+      </c>
+      <c r="F383" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H383" t="s">
+        <v>88</v>
+      </c>
+      <c r="I383" t="s">
+        <v>76</v>
+      </c>
+      <c r="J383">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A384" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B384">
+        <v>1</v>
+      </c>
+      <c r="F384" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H384" t="s">
+        <v>88</v>
+      </c>
+      <c r="I384" t="s">
+        <v>76</v>
+      </c>
+      <c r="J384">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A385" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B385">
+        <v>2</v>
+      </c>
+      <c r="F385" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H385" t="s">
+        <v>88</v>
+      </c>
+      <c r="I385" t="s">
+        <v>76</v>
+      </c>
+      <c r="J385">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A386" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B386">
+        <v>1</v>
+      </c>
+      <c r="F386" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H386" t="s">
+        <v>88</v>
+      </c>
+      <c r="I386" t="s">
+        <v>76</v>
+      </c>
+      <c r="J386">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A387" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B387">
+        <v>2</v>
+      </c>
+      <c r="F387" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H387" t="s">
+        <v>88</v>
+      </c>
+      <c r="I387" t="s">
+        <v>76</v>
+      </c>
+      <c r="J387">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A388" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B388">
+        <v>1</v>
+      </c>
+      <c r="F388" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H388" t="s">
+        <v>88</v>
+      </c>
+      <c r="I388" t="s">
+        <v>76</v>
+      </c>
+      <c r="J388">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A389" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B389">
+        <v>2</v>
+      </c>
+      <c r="F389" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H389" t="s">
+        <v>88</v>
+      </c>
+      <c r="I389" t="s">
+        <v>76</v>
+      </c>
+      <c r="J389">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A390" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B390">
+        <v>1</v>
+      </c>
+      <c r="F390" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H390" t="s">
+        <v>88</v>
+      </c>
+      <c r="I390" t="s">
+        <v>76</v>
+      </c>
+      <c r="J390">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A391" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B391">
+        <v>2</v>
+      </c>
+      <c r="F391" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H391" t="s">
+        <v>88</v>
+      </c>
+      <c r="I391" t="s">
+        <v>76</v>
+      </c>
+      <c r="J391">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A392" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B392">
+        <v>1</v>
+      </c>
+      <c r="F392" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H392" t="s">
+        <v>88</v>
+      </c>
+      <c r="I392" t="s">
+        <v>76</v>
+      </c>
+      <c r="J392">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A393" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B393">
+        <v>2</v>
+      </c>
+      <c r="F393" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H393" t="s">
+        <v>88</v>
+      </c>
+      <c r="I393" t="s">
+        <v>76</v>
+      </c>
+      <c r="J393">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A394" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B394">
+        <v>1</v>
+      </c>
+      <c r="F394" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H394" t="s">
+        <v>88</v>
+      </c>
+      <c r="I394" t="s">
+        <v>76</v>
+      </c>
+      <c r="J394">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A395" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B395">
+        <v>2</v>
+      </c>
+      <c r="F395" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H395" t="s">
+        <v>88</v>
+      </c>
+      <c r="I395" t="s">
+        <v>76</v>
+      </c>
+      <c r="J395">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A396" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B396">
+        <v>1</v>
+      </c>
+      <c r="F396" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H396" t="s">
+        <v>88</v>
+      </c>
+      <c r="I396" t="s">
+        <v>76</v>
+      </c>
+      <c r="J396">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A397" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B397">
+        <v>2</v>
+      </c>
+      <c r="F397" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H397" t="s">
+        <v>88</v>
+      </c>
+      <c r="I397" t="s">
+        <v>76</v>
+      </c>
+      <c r="J397">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A398" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B398">
+        <v>1</v>
+      </c>
+      <c r="F398" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H398" t="s">
+        <v>88</v>
+      </c>
+      <c r="I398" t="s">
+        <v>76</v>
+      </c>
+      <c r="J398">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A399" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B399">
+        <v>2</v>
+      </c>
+      <c r="F399" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H399" t="s">
+        <v>88</v>
+      </c>
+      <c r="I399" t="s">
+        <v>76</v>
+      </c>
+      <c r="J399">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A400" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B400">
+        <v>1</v>
+      </c>
+      <c r="F400" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H400" t="s">
+        <v>88</v>
+      </c>
+      <c r="I400" t="s">
+        <v>76</v>
+      </c>
+      <c r="J400">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A401" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B401">
+        <v>2</v>
+      </c>
+      <c r="F401" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H401" t="s">
+        <v>88</v>
+      </c>
+      <c r="I401" t="s">
+        <v>76</v>
+      </c>
+      <c r="J401">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:J265" xr:uid="{303E4824-0DA0-4156-A165-CC92066081A2}"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/amnh/datasets/MigratoryModel/CombinedMigratoryModel_GuthrieZone_Path - AllModels.xlsx
+++ b/amnh/datasets/MigratoryModel/CombinedMigratoryModel_GuthrieZone_Path - AllModels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colby Ford\Desktop\BantuMigration\Github\amnh\datasets\MigratoryModel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A85EB19-532B-470A-9C0C-DC4FF84E0ACC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35EF966-40DD-4218-996B-020DD9962364}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{48220AAF-5FA7-46D3-8056-2130CE6EF7AB}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1744" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1752" uniqueCount="169">
   <si>
     <t>A</t>
   </si>
@@ -894,11 +894,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB7D369B-DF5B-472F-B73D-7CCA41A92755}">
-  <dimension ref="A1:J401"/>
+  <dimension ref="A1:J403"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A342" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A386" sqref="A386"/>
+      <pane ySplit="1" topLeftCell="A341" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C358" sqref="C358:C403"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11199,6 +11199,12 @@
       <c r="B358">
         <v>1</v>
       </c>
+      <c r="D358">
+        <v>5.1657630000000001</v>
+      </c>
+      <c r="E358">
+        <v>10.159295</v>
+      </c>
       <c r="F358" s="1" t="s">
         <v>114</v>
       </c>
@@ -11219,6 +11225,12 @@
       <c r="B359">
         <v>2</v>
       </c>
+      <c r="D359">
+        <v>-0.64393199999999995</v>
+      </c>
+      <c r="E359">
+        <v>16.296029000000001</v>
+      </c>
       <c r="F359" s="1" t="s">
         <v>115</v>
       </c>
@@ -11239,6 +11251,12 @@
       <c r="B360">
         <v>1</v>
       </c>
+      <c r="D360">
+        <v>-0.64393199999999995</v>
+      </c>
+      <c r="E360">
+        <v>16.296029000000001</v>
+      </c>
       <c r="F360" s="1" t="s">
         <v>115</v>
       </c>
@@ -11259,6 +11277,12 @@
       <c r="B361">
         <v>2</v>
       </c>
+      <c r="D361">
+        <v>3.5703939999999998</v>
+      </c>
+      <c r="E361">
+        <v>27.157672999999999</v>
+      </c>
       <c r="F361" s="1" t="s">
         <v>137</v>
       </c>
@@ -11279,6 +11303,12 @@
       <c r="B362">
         <v>1</v>
       </c>
+      <c r="D362">
+        <v>-0.64393199999999995</v>
+      </c>
+      <c r="E362">
+        <v>16.296029000000001</v>
+      </c>
       <c r="F362" s="1" t="s">
         <v>115</v>
       </c>
@@ -11299,6 +11329,12 @@
       <c r="B363">
         <v>2</v>
       </c>
+      <c r="D363">
+        <v>-3.6909329999999998</v>
+      </c>
+      <c r="E363">
+        <v>15.260691</v>
+      </c>
       <c r="F363" s="1" t="s">
         <v>138</v>
       </c>
@@ -11319,6 +11355,12 @@
       <c r="B364">
         <v>1</v>
       </c>
+      <c r="D364">
+        <v>-3.6909329999999998</v>
+      </c>
+      <c r="E364">
+        <v>15.260691</v>
+      </c>
       <c r="F364" s="1" t="s">
         <v>138</v>
       </c>
@@ -11339,6 +11381,12 @@
       <c r="B365">
         <v>2</v>
       </c>
+      <c r="D365">
+        <v>-0.92627000000000004</v>
+      </c>
+      <c r="E365">
+        <v>10.931093000000001</v>
+      </c>
       <c r="F365" s="1" t="s">
         <v>139</v>
       </c>
@@ -11359,6 +11407,12 @@
       <c r="B366">
         <v>1</v>
       </c>
+      <c r="D366">
+        <v>-3.6909329999999998</v>
+      </c>
+      <c r="E366">
+        <v>15.260691</v>
+      </c>
       <c r="F366" s="1" t="s">
         <v>138</v>
       </c>
@@ -11379,6 +11433,12 @@
       <c r="B367">
         <v>2</v>
       </c>
+      <c r="D367">
+        <v>-5.2298070000000001</v>
+      </c>
+      <c r="E367">
+        <v>14.921853</v>
+      </c>
       <c r="F367" s="1" t="s">
         <v>111</v>
       </c>
@@ -11399,6 +11459,12 @@
       <c r="B368">
         <v>1</v>
       </c>
+      <c r="D368">
+        <v>-3.6909329999999998</v>
+      </c>
+      <c r="E368">
+        <v>15.260691</v>
+      </c>
       <c r="F368" s="1" t="s">
         <v>138</v>
       </c>
@@ -11419,6 +11485,12 @@
       <c r="B369">
         <v>2</v>
       </c>
+      <c r="D369">
+        <v>-7.101267</v>
+      </c>
+      <c r="E369">
+        <v>14.714784999999999</v>
+      </c>
       <c r="F369" s="1" t="s">
         <v>110</v>
       </c>
@@ -11439,6 +11511,12 @@
       <c r="B370">
         <v>1</v>
       </c>
+      <c r="D370">
+        <v>-5.2298070000000001</v>
+      </c>
+      <c r="E370">
+        <v>14.921853</v>
+      </c>
       <c r="F370" s="1" t="s">
         <v>111</v>
       </c>
@@ -11459,6 +11537,12 @@
       <c r="B371">
         <v>2</v>
       </c>
+      <c r="D371">
+        <v>-10.486506</v>
+      </c>
+      <c r="E371">
+        <v>20.945640999999998</v>
+      </c>
       <c r="F371" s="1" t="s">
         <v>112</v>
       </c>
@@ -11479,6 +11563,12 @@
       <c r="B372">
         <v>1</v>
       </c>
+      <c r="D372">
+        <v>-10.486506</v>
+      </c>
+      <c r="E372">
+        <v>20.945640999999998</v>
+      </c>
       <c r="F372" s="1" t="s">
         <v>112</v>
       </c>
@@ -11499,6 +11589,12 @@
       <c r="B373">
         <v>2</v>
       </c>
+      <c r="D373">
+        <v>-28.559771000000001</v>
+      </c>
+      <c r="E373">
+        <v>28.96481</v>
+      </c>
       <c r="F373" s="1" t="s">
         <v>113</v>
       </c>
@@ -11519,6 +11615,12 @@
       <c r="B374">
         <v>1</v>
       </c>
+      <c r="D374">
+        <v>-10.486506</v>
+      </c>
+      <c r="E374">
+        <v>20.945640999999998</v>
+      </c>
       <c r="F374" s="1" t="s">
         <v>112</v>
       </c>
@@ -11539,6 +11641,12 @@
       <c r="B375">
         <v>2</v>
       </c>
+      <c r="D375">
+        <v>-11.336762</v>
+      </c>
+      <c r="E375">
+        <v>22.639831999999998</v>
+      </c>
       <c r="F375" s="1" t="s">
         <v>140</v>
       </c>
@@ -11559,6 +11667,12 @@
       <c r="B376">
         <v>1</v>
       </c>
+      <c r="D376">
+        <v>-11.336762</v>
+      </c>
+      <c r="E376">
+        <v>22.639831999999998</v>
+      </c>
       <c r="F376" s="1" t="s">
         <v>140</v>
       </c>
@@ -11579,6 +11693,12 @@
       <c r="B377">
         <v>2</v>
       </c>
+      <c r="D377">
+        <v>-13.26783</v>
+      </c>
+      <c r="E377">
+        <v>33.972084000000002</v>
+      </c>
       <c r="F377" s="1" t="s">
         <v>142</v>
       </c>
@@ -11599,6 +11719,12 @@
       <c r="B378">
         <v>1</v>
       </c>
+      <c r="D378">
+        <v>-11.336762</v>
+      </c>
+      <c r="E378">
+        <v>22.639831999999998</v>
+      </c>
       <c r="F378" s="1" t="s">
         <v>140</v>
       </c>
@@ -11619,6 +11745,12 @@
       <c r="B379">
         <v>2</v>
       </c>
+      <c r="D379">
+        <v>-7.2880279999999997</v>
+      </c>
+      <c r="E379">
+        <v>26.159983</v>
+      </c>
       <c r="F379" s="1" t="s">
         <v>143</v>
       </c>
@@ -11639,6 +11771,12 @@
       <c r="B380">
         <v>1</v>
       </c>
+      <c r="D380">
+        <v>-7.2880279999999997</v>
+      </c>
+      <c r="E380">
+        <v>26.159983</v>
+      </c>
       <c r="F380" s="1" t="s">
         <v>143</v>
       </c>
@@ -11659,6 +11797,12 @@
       <c r="B381">
         <v>2</v>
       </c>
+      <c r="D381">
+        <v>-2.2998690000000002</v>
+      </c>
+      <c r="E381">
+        <v>27.007078</v>
+      </c>
       <c r="F381" s="1" t="s">
         <v>119</v>
       </c>
@@ -11679,6 +11823,12 @@
       <c r="B382">
         <v>1</v>
       </c>
+      <c r="D382">
+        <v>-7.2880279999999997</v>
+      </c>
+      <c r="E382">
+        <v>26.159983</v>
+      </c>
       <c r="F382" s="1" t="s">
         <v>143</v>
       </c>
@@ -11699,6 +11849,12 @@
       <c r="B383">
         <v>2</v>
       </c>
+      <c r="D383">
+        <v>-9.3739860000000004</v>
+      </c>
+      <c r="E383">
+        <v>29.642486000000002</v>
+      </c>
       <c r="F383" s="1" t="s">
         <v>144</v>
       </c>
@@ -11719,6 +11875,12 @@
       <c r="B384">
         <v>1</v>
       </c>
+      <c r="D384">
+        <v>-9.3739860000000004</v>
+      </c>
+      <c r="E384">
+        <v>29.642486000000002</v>
+      </c>
       <c r="F384" s="1" t="s">
         <v>144</v>
       </c>
@@ -11739,6 +11901,12 @@
       <c r="B385">
         <v>2</v>
       </c>
+      <c r="D385">
+        <v>-14.492207000000001</v>
+      </c>
+      <c r="E385">
+        <v>15.110096</v>
+      </c>
       <c r="F385" s="1" t="s">
         <v>145</v>
       </c>
@@ -11759,6 +11927,12 @@
       <c r="B386">
         <v>1</v>
       </c>
+      <c r="D386">
+        <v>-9.3739860000000004</v>
+      </c>
+      <c r="E386">
+        <v>29.642486000000002</v>
+      </c>
       <c r="F386" s="1" t="s">
         <v>144</v>
       </c>
@@ -11779,6 +11953,12 @@
       <c r="B387">
         <v>2</v>
       </c>
+      <c r="D387">
+        <v>-10.171678999999999</v>
+      </c>
+      <c r="E387">
+        <v>30.282513000000002</v>
+      </c>
       <c r="F387" s="1" t="s">
         <v>146</v>
       </c>
@@ -11794,10 +11974,16 @@
     </row>
     <row r="388" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
-        <v>165</v>
+        <v>124</v>
       </c>
       <c r="B388">
         <v>1</v>
+      </c>
+      <c r="D388">
+        <v>-10.171678999999999</v>
+      </c>
+      <c r="E388">
+        <v>30.282513000000002</v>
       </c>
       <c r="F388" s="1" t="s">
         <v>146</v>
@@ -11814,13 +12000,19 @@
     </row>
     <row r="389" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
-        <v>165</v>
+        <v>124</v>
       </c>
       <c r="B389">
         <v>2</v>
       </c>
+      <c r="D389">
+        <v>-0.22980900000000001</v>
+      </c>
+      <c r="E389">
+        <v>30.903717</v>
+      </c>
       <c r="F389" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H389" t="s">
         <v>88</v>
@@ -11834,13 +12026,19 @@
     </row>
     <row r="390" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B390">
         <v>1</v>
       </c>
+      <c r="D390">
+        <v>-10.171678999999999</v>
+      </c>
+      <c r="E390">
+        <v>30.282513000000002</v>
+      </c>
       <c r="F390" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H390" t="s">
         <v>88</v>
@@ -11854,13 +12052,19 @@
     </row>
     <row r="391" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B391">
         <v>2</v>
       </c>
+      <c r="D391">
+        <v>-10.708545000000001</v>
+      </c>
+      <c r="E391">
+        <v>30.677824000000001</v>
+      </c>
       <c r="F391" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H391" t="s">
         <v>88</v>
@@ -11874,10 +12078,16 @@
     </row>
     <row r="392" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B392">
         <v>1</v>
+      </c>
+      <c r="D392">
+        <v>-10.708545000000001</v>
+      </c>
+      <c r="E392">
+        <v>30.677824000000001</v>
       </c>
       <c r="F392" s="1" t="s">
         <v>149</v>
@@ -11894,13 +12104,19 @@
     </row>
     <row r="393" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B393">
         <v>2</v>
       </c>
+      <c r="D393">
+        <v>-11.871508</v>
+      </c>
+      <c r="E393">
+        <v>31.242554999999999</v>
+      </c>
       <c r="F393" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H393" t="s">
         <v>88</v>
@@ -11914,13 +12130,19 @@
     </row>
     <row r="394" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
-        <v>128</v>
+        <v>168</v>
       </c>
       <c r="B394">
         <v>1</v>
       </c>
+      <c r="D394">
+        <v>-10.708545000000001</v>
+      </c>
+      <c r="E394">
+        <v>30.677824000000001</v>
+      </c>
       <c r="F394" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H394" t="s">
         <v>88</v>
@@ -11934,13 +12156,19 @@
     </row>
     <row r="395" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
-        <v>128</v>
+        <v>168</v>
       </c>
       <c r="B395">
         <v>2</v>
       </c>
+      <c r="D395">
+        <v>-3.841202</v>
+      </c>
+      <c r="E395">
+        <v>33.727367000000001</v>
+      </c>
       <c r="F395" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H395" t="s">
         <v>88</v>
@@ -11954,10 +12182,16 @@
     </row>
     <row r="396" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B396">
         <v>1</v>
+      </c>
+      <c r="D396">
+        <v>-3.841202</v>
+      </c>
+      <c r="E396">
+        <v>33.727367000000001</v>
       </c>
       <c r="F396" s="1" t="s">
         <v>150</v>
@@ -11974,13 +12208,19 @@
     </row>
     <row r="397" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B397">
         <v>2</v>
       </c>
+      <c r="D397">
+        <v>-1.7354909999999999</v>
+      </c>
+      <c r="E397">
+        <v>29.378945000000002</v>
+      </c>
       <c r="F397" s="1" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="H397" t="s">
         <v>88</v>
@@ -11994,13 +12234,19 @@
     </row>
     <row r="398" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="B398">
         <v>1</v>
       </c>
+      <c r="D398">
+        <v>-3.841202</v>
+      </c>
+      <c r="E398">
+        <v>33.727367000000001</v>
+      </c>
       <c r="F398" s="1" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="H398" t="s">
         <v>88</v>
@@ -12014,13 +12260,19 @@
     </row>
     <row r="399" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="B399">
         <v>2</v>
       </c>
+      <c r="D399">
+        <v>-1.453236</v>
+      </c>
+      <c r="E399">
+        <v>36.080410000000001</v>
+      </c>
       <c r="F399" s="1" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="H399" t="s">
         <v>88</v>
@@ -12034,13 +12286,19 @@
     </row>
     <row r="400" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B400">
         <v>1</v>
       </c>
+      <c r="D400">
+        <v>-1.453236</v>
+      </c>
+      <c r="E400">
+        <v>36.080410000000001</v>
+      </c>
       <c r="F400" s="1" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="H400" t="s">
         <v>88</v>
@@ -12054,13 +12312,19 @@
     </row>
     <row r="401" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B401">
         <v>2</v>
       </c>
+      <c r="D401">
+        <v>-1.4155990000000001</v>
+      </c>
+      <c r="E401">
+        <v>38.376978999999999</v>
+      </c>
       <c r="F401" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H401" t="s">
         <v>88</v>
@@ -12069,6 +12333,58 @@
         <v>76</v>
       </c>
       <c r="J401">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A402" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B402">
+        <v>1</v>
+      </c>
+      <c r="D402">
+        <v>-1.4155990000000001</v>
+      </c>
+      <c r="E402">
+        <v>38.376978999999999</v>
+      </c>
+      <c r="F402" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H402" t="s">
+        <v>88</v>
+      </c>
+      <c r="I402" t="s">
+        <v>76</v>
+      </c>
+      <c r="J402">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A403" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B403">
+        <v>2</v>
+      </c>
+      <c r="D403">
+        <v>-4.5733680000000003</v>
+      </c>
+      <c r="E403">
+        <v>37.868721999999998</v>
+      </c>
+      <c r="F403" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H403" t="s">
+        <v>88</v>
+      </c>
+      <c r="I403" t="s">
+        <v>76</v>
+      </c>
+      <c r="J403">
         <v>1</v>
       </c>
     </row>
